--- a/S2T/BASELINE/S2T/product_specific/dmr/LoggerFiles/TileView_Template.xlsx
+++ b/S2T/BASELINE/S2T/product_specific/dmr/LoggerFiles/TileView_Template.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Automation\Automation\S2T\BASELINE\S2T\product_specific\dmr\LoggerFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636B0EA7-C30D-4741-BE4B-4A2DB1D2BDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3045465-8D7F-415F-8DC9-74D3CEB24C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DA75837-8C0C-4B6E-9F29-CC335C1414E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3DA75837-8C0C-4B6E-9F29-CC335C1414E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1456,7 +1455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1495,83 +1494,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1581,15 +1508,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1615,15 +1533,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1631,45 +1540,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1687,398 +1557,146 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -2569,28 +2187,28 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
@@ -2600,26 +2218,26 @@
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
@@ -2629,32 +2247,32 @@
     </row>
     <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
       <c r="O4" s="72"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -2664,11 +2282,11 @@
     </row>
     <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
-      <c r="B5" s="36">
+      <c r="B5" s="47">
         <v>0</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="3">
@@ -2701,15 +2319,15 @@
       <c r="N5" s="5">
         <v>3</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -2719,25 +2337,25 @@
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="35">
         <v>0</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="23">
         <v>0</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="26" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -2758,15 +2376,15 @@
       <c r="N6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="27">
         <v>0</v>
       </c>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
@@ -2776,9 +2394,9 @@
     </row>
     <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="50">
+      <c r="B7" s="63"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="23">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2811,15 +2429,15 @@
       <c r="N7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="27">
         <v>1</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
@@ -2829,11 +2447,11 @@
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="64">
+      <c r="B8" s="63"/>
+      <c r="C8" s="35">
         <v>1</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="23">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2866,15 +2484,15 @@
       <c r="N8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="27">
         <v>2</v>
       </c>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -2884,9 +2502,9 @@
     </row>
     <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="50">
+      <c r="B9" s="63"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="23">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2919,15 +2537,15 @@
       <c r="N9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="27">
         <v>3</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
@@ -2937,11 +2555,11 @@
     </row>
     <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="64">
+      <c r="B10" s="63"/>
+      <c r="C10" s="35">
         <v>2</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="23">
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2974,15 +2592,15 @@
       <c r="N10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="27">
         <v>4</v>
       </c>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -2992,9 +2610,9 @@
     </row>
     <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="50">
+      <c r="B11" s="63"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="23">
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3027,15 +2645,15 @@
       <c r="N11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="27">
         <v>5</v>
       </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
@@ -3045,11 +2663,11 @@
     </row>
     <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="64">
+      <c r="B12" s="63"/>
+      <c r="C12" s="35">
         <v>3</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="23">
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3082,15 +2700,15 @@
       <c r="N12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O12" s="57">
+      <c r="O12" s="27">
         <v>6</v>
       </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -3100,50 +2718,50 @@
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="51">
+      <c r="B13" s="63"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="24">
         <v>7</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="25" t="s">
         <v>88</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="52" t="s">
+      <c r="J13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="52" t="s">
+      <c r="L13" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="M13" s="52" t="s">
+      <c r="M13" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="O13" s="59">
+      <c r="O13" s="29">
         <v>7</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -3153,28 +2771,28 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="54" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
@@ -3184,34 +2802,34 @@
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76" t="s">
+      <c r="B15" s="73"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="76" t="s">
+      <c r="L15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="76" t="s">
+      <c r="M15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="76" t="s">
+      <c r="N15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="77"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
@@ -3221,26 +2839,26 @@
     </row>
     <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
@@ -3250,32 +2868,32 @@
     </row>
     <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16" t="s">
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
       <c r="O17" s="72"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
@@ -3285,11 +2903,11 @@
     </row>
     <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="36">
+      <c r="B18" s="47">
         <v>1</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="3">
@@ -3322,15 +2940,15 @@
       <c r="N18" s="5">
         <v>3</v>
       </c>
-      <c r="O18" s="57" t="s">
+      <c r="O18" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -3340,25 +2958,25 @@
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="35">
         <v>0</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="23">
         <v>0</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="53" t="s">
+      <c r="G19" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="26" t="s">
         <v>96</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -3379,15 +2997,15 @@
       <c r="N19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O19" s="57">
+      <c r="O19" s="27">
         <v>0</v>
       </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -3397,9 +3015,9 @@
     </row>
     <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="50">
+      <c r="B20" s="63"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="23">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3432,15 +3050,15 @@
       <c r="N20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="57">
+      <c r="O20" s="27">
         <v>1</v>
       </c>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -3450,11 +3068,11 @@
     </row>
     <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="64">
+      <c r="B21" s="63"/>
+      <c r="C21" s="35">
         <v>1</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="23">
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3487,15 +3105,15 @@
       <c r="N21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O21" s="57">
+      <c r="O21" s="27">
         <v>2</v>
       </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
@@ -3505,9 +3123,9 @@
     </row>
     <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="50">
+      <c r="B22" s="63"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="23">
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -3540,15 +3158,15 @@
       <c r="N22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O22" s="57">
+      <c r="O22" s="27">
         <v>3</v>
       </c>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
@@ -3558,11 +3176,11 @@
     </row>
     <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="64">
+      <c r="B23" s="63"/>
+      <c r="C23" s="35">
         <v>2</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="23">
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3595,15 +3213,15 @@
       <c r="N23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="57">
+      <c r="O23" s="27">
         <v>4</v>
       </c>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
@@ -3613,9 +3231,9 @@
     </row>
     <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="50">
+      <c r="B24" s="63"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="23">
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3648,15 +3266,15 @@
       <c r="N24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O24" s="57">
+      <c r="O24" s="27">
         <v>5</v>
       </c>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
@@ -3666,11 +3284,11 @@
     </row>
     <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="64">
+      <c r="B25" s="63"/>
+      <c r="C25" s="35">
         <v>3</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="23">
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -3703,15 +3321,15 @@
       <c r="N25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O25" s="57">
+      <c r="O25" s="27">
         <v>6</v>
       </c>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
@@ -3721,50 +3339,50 @@
     </row>
     <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="51">
+      <c r="B26" s="63"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="24">
         <v>7</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="52" t="s">
+      <c r="H26" s="25" t="s">
         <v>152</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="52" t="s">
+      <c r="J26" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="L26" s="52" t="s">
+      <c r="L26" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="M26" s="52" t="s">
+      <c r="M26" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N26" s="52" t="s">
+      <c r="N26" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="O26" s="59">
+      <c r="O26" s="29">
         <v>7</v>
       </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
@@ -3774,28 +3392,28 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="54" t="s">
+      <c r="B27" s="63"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
@@ -3805,34 +3423,34 @@
     </row>
     <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="76" t="s">
+      <c r="B28" s="73"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="76" t="s">
+      <c r="L28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="76" t="s">
+      <c r="M28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="76" t="s">
+      <c r="N28" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="O28" s="77"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
@@ -3842,26 +3460,26 @@
     </row>
     <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
@@ -3871,32 +3489,32 @@
     </row>
     <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="37"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16" t="s">
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
       <c r="O30" s="72"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
@@ -3906,11 +3524,11 @@
     </row>
     <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
-      <c r="B31" s="36">
+      <c r="B31" s="47">
         <v>2</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="50" t="s">
+      <c r="C31" s="49"/>
+      <c r="D31" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="3">
@@ -3943,15 +3561,15 @@
       <c r="N31" s="5">
         <v>3</v>
       </c>
-      <c r="O31" s="57" t="s">
+      <c r="O31" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
@@ -3961,25 +3579,25 @@
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="35">
         <v>0</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="23">
         <v>0</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="26" t="s">
         <v>160</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -4000,15 +3618,15 @@
       <c r="N32" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="27">
         <v>0</v>
       </c>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
@@ -4018,9 +3636,9 @@
     </row>
     <row r="33" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="50">
+      <c r="B33" s="63"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="23">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -4053,15 +3671,15 @@
       <c r="N33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="O33" s="57">
+      <c r="O33" s="27">
         <v>1</v>
       </c>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
@@ -4071,11 +3689,11 @@
     </row>
     <row r="34" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="64">
+      <c r="B34" s="63"/>
+      <c r="C34" s="35">
         <v>1</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="23">
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -4108,15 +3726,15 @@
       <c r="N34" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="O34" s="57">
+      <c r="O34" s="27">
         <v>2</v>
       </c>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
@@ -4126,9 +3744,9 @@
     </row>
     <row r="35" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="50">
+      <c r="B35" s="63"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="23">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -4161,15 +3779,15 @@
       <c r="N35" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O35" s="57">
+      <c r="O35" s="27">
         <v>3</v>
       </c>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
@@ -4179,11 +3797,11 @@
     </row>
     <row r="36" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="64">
+      <c r="B36" s="63"/>
+      <c r="C36" s="35">
         <v>2</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="23">
         <v>4</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -4216,15 +3834,15 @@
       <c r="N36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="O36" s="57">
+      <c r="O36" s="27">
         <v>4</v>
       </c>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
@@ -4234,9 +3852,9 @@
     </row>
     <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="50">
+      <c r="B37" s="63"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="23">
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -4269,15 +3887,15 @@
       <c r="N37" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="O37" s="57">
+      <c r="O37" s="27">
         <v>5</v>
       </c>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
@@ -4287,11 +3905,11 @@
     </row>
     <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="64">
+      <c r="B38" s="63"/>
+      <c r="C38" s="35">
         <v>3</v>
       </c>
-      <c r="D38" s="50">
+      <c r="D38" s="23">
         <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -4324,15 +3942,15 @@
       <c r="N38" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O38" s="57">
+      <c r="O38" s="27">
         <v>6</v>
       </c>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
@@ -4342,50 +3960,50 @@
     </row>
     <row r="39" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="51">
+      <c r="B39" s="63"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="24">
         <v>7</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="25" t="s">
         <v>216</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J39" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="K39" s="52" t="s">
+      <c r="J39" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="L39" s="52" t="s">
+      <c r="L39" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="M39" s="52" t="s">
+      <c r="M39" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="N39" s="52" t="s">
+      <c r="N39" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="O39" s="59">
+      <c r="O39" s="29">
         <v>7</v>
       </c>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="60"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
@@ -4395,28 +4013,28 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="54" t="s">
+      <c r="B40" s="63"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
@@ -4426,34 +4044,34 @@
     </row>
     <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="76" t="s">
+      <c r="B41" s="73"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="76" t="s">
+      <c r="L41" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="76" t="s">
+      <c r="M41" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N41" s="76" t="s">
+      <c r="N41" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="O41" s="77"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
@@ -4463,26 +4081,26 @@
     </row>
     <row r="42" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
@@ -4492,32 +4110,32 @@
     </row>
     <row r="43" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="37"/>
+      <c r="C43" s="48"/>
       <c r="D43" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16" t="s">
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
       <c r="O43" s="72"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
@@ -4527,11 +4145,11 @@
     </row>
     <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
-      <c r="B44" s="36">
+      <c r="B44" s="47">
         <v>3</v>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="50" t="s">
+      <c r="C44" s="49"/>
+      <c r="D44" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="3">
@@ -4564,15 +4182,15 @@
       <c r="N44" s="5">
         <v>3</v>
       </c>
-      <c r="O44" s="57" t="s">
+      <c r="O44" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="60"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
@@ -4582,25 +4200,25 @@
     </row>
     <row r="45" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="64">
+      <c r="C45" s="35">
         <v>0</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="23">
         <v>0</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="F45" s="53" t="s">
+      <c r="F45" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="G45" s="53" t="s">
+      <c r="G45" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="H45" s="53" t="s">
+      <c r="H45" s="26" t="s">
         <v>224</v>
       </c>
       <c r="I45" s="3" t="s">
@@ -4621,15 +4239,15 @@
       <c r="N45" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="O45" s="57">
+      <c r="O45" s="27">
         <v>0</v>
       </c>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
@@ -4639,9 +4257,9 @@
     </row>
     <row r="46" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="50">
+      <c r="B46" s="63"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="23">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -4674,15 +4292,15 @@
       <c r="N46" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O46" s="57">
+      <c r="O46" s="27">
         <v>1</v>
       </c>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
       <c r="V46" s="11"/>
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
@@ -4692,11 +4310,11 @@
     </row>
     <row r="47" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="64">
+      <c r="B47" s="63"/>
+      <c r="C47" s="35">
         <v>1</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D47" s="23">
         <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -4729,15 +4347,15 @@
       <c r="N47" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="O47" s="57">
+      <c r="O47" s="27">
         <v>2</v>
       </c>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
       <c r="V47" s="11"/>
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
@@ -4747,9 +4365,9 @@
     </row>
     <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="50">
+      <c r="B48" s="63"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="23">
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -4782,15 +4400,15 @@
       <c r="N48" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="O48" s="57">
+      <c r="O48" s="27">
         <v>3</v>
       </c>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="60"/>
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
@@ -4800,11 +4418,11 @@
     </row>
     <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="64">
+      <c r="B49" s="63"/>
+      <c r="C49" s="35">
         <v>2</v>
       </c>
-      <c r="D49" s="50">
+      <c r="D49" s="23">
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -4837,15 +4455,15 @@
       <c r="N49" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="O49" s="57">
+      <c r="O49" s="27">
         <v>4</v>
       </c>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="60"/>
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
@@ -4855,9 +4473,9 @@
     </row>
     <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="50">
+      <c r="B50" s="63"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="23">
         <v>5</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -4890,15 +4508,15 @@
       <c r="N50" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="O50" s="57">
+      <c r="O50" s="27">
         <v>5</v>
       </c>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="60"/>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
@@ -4908,11 +4526,11 @@
     </row>
     <row r="51" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="64">
+      <c r="B51" s="63"/>
+      <c r="C51" s="35">
         <v>3</v>
       </c>
-      <c r="D51" s="50">
+      <c r="D51" s="23">
         <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -4945,15 +4563,15 @@
       <c r="N51" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="O51" s="57">
+      <c r="O51" s="27">
         <v>6</v>
       </c>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="60"/>
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
@@ -4963,50 +4581,50 @@
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="51">
+      <c r="B52" s="63"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="24">
         <v>7</v>
       </c>
-      <c r="E52" s="52" t="s">
+      <c r="E52" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="F52" s="52" t="s">
+      <c r="F52" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="G52" s="52" t="s">
+      <c r="G52" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="H52" s="52" t="s">
+      <c r="H52" s="25" t="s">
         <v>280</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J52" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="52" t="s">
+      <c r="J52" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="L52" s="52" t="s">
+      <c r="L52" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="M52" s="52" t="s">
+      <c r="M52" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="N52" s="52" t="s">
+      <c r="N52" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="O52" s="59">
+      <c r="O52" s="29">
         <v>7</v>
       </c>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="32"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="60"/>
       <c r="V52" s="11"/>
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
@@ -5016,28 +4634,28 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="54" t="s">
+      <c r="B53" s="63"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="55"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="32"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="60"/>
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
@@ -5047,34 +4665,34 @@
     </row>
     <row r="54" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="76" t="s">
+      <c r="B54" s="63"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="L54" s="76" t="s">
+      <c r="L54" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M54" s="76" t="s">
+      <c r="M54" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N54" s="76" t="s">
+      <c r="N54" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="O54" s="77"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="32"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="60"/>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
@@ -5084,26 +4702,26 @@
     </row>
     <row r="55" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="32"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="60"/>
+      <c r="U55" s="60"/>
       <c r="V55" s="11"/>
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
@@ -5113,48 +4731,48 @@
     </row>
     <row r="56" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="42" t="s">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="42">
+      <c r="E56" s="18">
         <v>0</v>
       </c>
-      <c r="F56" s="42">
+      <c r="F56" s="18">
         <v>1</v>
       </c>
-      <c r="G56" s="42">
+      <c r="G56" s="18">
         <v>2</v>
       </c>
-      <c r="H56" s="42">
+      <c r="H56" s="18">
         <v>3</v>
       </c>
-      <c r="I56" s="42">
+      <c r="I56" s="18">
         <v>4</v>
       </c>
-      <c r="J56" s="42">
+      <c r="J56" s="18">
         <v>5</v>
       </c>
-      <c r="K56" s="42">
+      <c r="K56" s="18">
         <v>6</v>
       </c>
-      <c r="L56" s="42">
+      <c r="L56" s="18">
         <v>7</v>
       </c>
-      <c r="M56" s="42">
+      <c r="M56" s="18">
         <v>8</v>
       </c>
-      <c r="N56" s="42" t="s">
+      <c r="N56" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O56" s="35"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="60"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="60"/>
+      <c r="T56" s="60"/>
+      <c r="U56" s="60"/>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
@@ -5164,8 +4782,8 @@
     </row>
     <row r="57" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="12">
         <v>0</v>
       </c>
@@ -5189,13 +4807,13 @@
       <c r="N57" s="12">
         <v>0</v>
       </c>
-      <c r="O57" s="35"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="32"/>
-      <c r="U57" s="32"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="61"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="60"/>
+      <c r="U57" s="60"/>
       <c r="V57" s="11"/>
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
@@ -5205,8 +4823,8 @@
     </row>
     <row r="58" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="12">
         <v>1</v>
       </c>
@@ -5236,13 +4854,13 @@
       <c r="N58" s="12">
         <v>1</v>
       </c>
-      <c r="O58" s="35"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="32"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="61"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="60"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
       <c r="V58" s="11"/>
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
@@ -5252,8 +4870,8 @@
     </row>
     <row r="59" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="12">
         <v>2</v>
       </c>
@@ -5285,13 +4903,13 @@
       <c r="N59" s="12">
         <v>2</v>
       </c>
-      <c r="O59" s="35"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="32"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="32"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="60"/>
+      <c r="T59" s="60"/>
+      <c r="U59" s="60"/>
       <c r="V59" s="11"/>
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
@@ -5301,8 +4919,8 @@
     </row>
     <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="12">
         <v>3</v>
       </c>
@@ -5326,13 +4944,13 @@
       <c r="N60" s="12">
         <v>3</v>
       </c>
-      <c r="O60" s="35"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="32"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="60"/>
+      <c r="U60" s="60"/>
       <c r="V60" s="11"/>
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
@@ -5342,30 +4960,30 @@
     </row>
     <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="40" t="s">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="40" t="s">
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O61" s="35"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-      <c r="T61" s="32"/>
-      <c r="U61" s="32"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="60"/>
+      <c r="U61" s="60"/>
       <c r="V61" s="11"/>
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
@@ -5375,26 +4993,26 @@
     </row>
     <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="45"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="32"/>
-      <c r="U62" s="32"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="60"/>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="60"/>
+      <c r="T62" s="60"/>
+      <c r="U62" s="60"/>
       <c r="V62" s="11"/>
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
@@ -5404,48 +5022,48 @@
     </row>
     <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="42" t="s">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="42">
+      <c r="E63" s="18">
         <v>0</v>
       </c>
-      <c r="F63" s="42">
+      <c r="F63" s="18">
         <v>1</v>
       </c>
-      <c r="G63" s="42">
+      <c r="G63" s="18">
         <v>2</v>
       </c>
-      <c r="H63" s="42">
+      <c r="H63" s="18">
         <v>3</v>
       </c>
-      <c r="I63" s="42">
+      <c r="I63" s="18">
         <v>4</v>
       </c>
-      <c r="J63" s="42">
+      <c r="J63" s="18">
         <v>5</v>
       </c>
-      <c r="K63" s="42">
+      <c r="K63" s="18">
         <v>6</v>
       </c>
-      <c r="L63" s="42">
+      <c r="L63" s="18">
         <v>7</v>
       </c>
-      <c r="M63" s="42">
+      <c r="M63" s="18">
         <v>8</v>
       </c>
-      <c r="N63" s="42" t="s">
+      <c r="N63" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="35"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="32"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="60"/>
+      <c r="R63" s="60"/>
+      <c r="S63" s="60"/>
+      <c r="T63" s="60"/>
+      <c r="U63" s="60"/>
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
@@ -5455,8 +5073,8 @@
     </row>
     <row r="64" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="12">
         <v>0</v>
       </c>
@@ -5480,13 +5098,13 @@
       <c r="N64" s="12">
         <v>0</v>
       </c>
-      <c r="O64" s="35"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="32"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="60"/>
+      <c r="R64" s="60"/>
+      <c r="S64" s="60"/>
+      <c r="T64" s="60"/>
+      <c r="U64" s="60"/>
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
@@ -5496,8 +5114,8 @@
     </row>
     <row r="65" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="12">
         <v>1</v>
       </c>
@@ -5527,13 +5145,13 @@
       <c r="N65" s="12">
         <v>1</v>
       </c>
-      <c r="O65" s="35"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="60"/>
+      <c r="R65" s="60"/>
+      <c r="S65" s="60"/>
+      <c r="T65" s="60"/>
+      <c r="U65" s="60"/>
       <c r="V65" s="11"/>
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
@@ -5543,8 +5161,8 @@
     </row>
     <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="12">
         <v>2</v>
       </c>
@@ -5576,13 +5194,13 @@
       <c r="N66" s="12">
         <v>2</v>
       </c>
-      <c r="O66" s="35"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="32"/>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="60"/>
+      <c r="R66" s="60"/>
+      <c r="S66" s="60"/>
+      <c r="T66" s="60"/>
+      <c r="U66" s="60"/>
       <c r="V66" s="11"/>
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
@@ -5592,8 +5210,8 @@
     </row>
     <row r="67" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="12">
         <v>3</v>
       </c>
@@ -5617,13 +5235,13 @@
       <c r="N67" s="12">
         <v>3</v>
       </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="32"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="32"/>
-      <c r="T67" s="32"/>
-      <c r="U67" s="32"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="60"/>
+      <c r="R67" s="60"/>
+      <c r="S67" s="60"/>
+      <c r="T67" s="60"/>
+      <c r="U67" s="60"/>
       <c r="V67" s="11"/>
       <c r="W67" s="11"/>
       <c r="X67" s="11"/>
@@ -5633,8 +5251,8 @@
     </row>
     <row r="68" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="12" t="s">
         <v>20</v>
       </c>
@@ -5650,13 +5268,13 @@
       <c r="N68" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="35"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="32"/>
-      <c r="T68" s="32"/>
-      <c r="U68" s="32"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="60"/>
+      <c r="R68" s="60"/>
+      <c r="S68" s="60"/>
+      <c r="T68" s="60"/>
+      <c r="U68" s="60"/>
       <c r="V68" s="11"/>
       <c r="W68" s="11"/>
       <c r="X68" s="11"/>
@@ -5666,26 +5284,26 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="32"/>
-      <c r="T69" s="32"/>
-      <c r="U69" s="32"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="65"/>
+      <c r="N69" s="65"/>
+      <c r="O69" s="65"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="60"/>
+      <c r="R69" s="60"/>
+      <c r="S69" s="60"/>
+      <c r="T69" s="60"/>
+      <c r="U69" s="60"/>
       <c r="V69" s="11"/>
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
@@ -5695,26 +5313,26 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="27"/>
-      <c r="Q70" s="27"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="27"/>
-      <c r="T70" s="27"/>
-      <c r="U70" s="27"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="74"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="74"/>
+      <c r="O70" s="74"/>
+      <c r="P70" s="74"/>
+      <c r="Q70" s="74"/>
+      <c r="R70" s="74"/>
+      <c r="S70" s="74"/>
+      <c r="T70" s="74"/>
+      <c r="U70" s="74"/>
       <c r="V70" s="11"/>
       <c r="W70" s="11"/>
       <c r="X70" s="11"/>
@@ -6371,20 +5989,28 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D53:I54"/>
-    <mergeCell ref="D40:I41"/>
-    <mergeCell ref="D27:I28"/>
-    <mergeCell ref="D14:I15"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="B70:U70"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="K53:N53"/>
     <mergeCell ref="B62:O62"/>
@@ -6401,75 +6027,67 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:O4"/>
     <mergeCell ref="B3:O3"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="B70:U70"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="J17:O17"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D53:I54"/>
+    <mergeCell ref="D40:I41"/>
+    <mergeCell ref="D27:I28"/>
+    <mergeCell ref="D14:I15"/>
+    <mergeCell ref="D30:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E32:I39 E6:I13 K14 K19:N26 E19:I26 K32:N39">
-    <cfRule type="expression" dxfId="71" priority="7">
+  <conditionalFormatting sqref="E6:I13 K14 E19:I26 K19:N26 E32:I39 K32:N39">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:I52">
-    <cfRule type="expression" dxfId="70" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:M60">
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64:M67">
-    <cfRule type="expression" dxfId="68" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="67" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="expression" dxfId="66" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="expression" dxfId="65" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:N13">
-    <cfRule type="expression" dxfId="64" priority="53">
+    <cfRule type="expression" dxfId="10" priority="53">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:N52">
-    <cfRule type="expression" dxfId="63" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6527,28 +6145,28 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
@@ -6558,26 +6176,26 @@
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
@@ -6587,32 +6205,32 @@
     </row>
     <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -6622,10 +6240,10 @@
     </row>
     <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
-      <c r="B5" s="36">
+      <c r="B5" s="47">
         <v>0</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
@@ -6662,12 +6280,12 @@
       <c r="O5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -6677,28 +6295,28 @@
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="62">
         <v>0</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="23">
         <v>0</v>
       </c>
-      <c r="E6" s="53" t="str">
+      <c r="E6" s="26" t="str">
         <f>"MOD"&amp;(($D6*4)+(E$5))+($B$5*32)</f>
         <v>MOD0</v>
       </c>
-      <c r="F6" s="53" t="str">
+      <c r="F6" s="26" t="str">
         <f t="shared" ref="F6:H13" si="0">"MOD"&amp;(($D6*4)+(F$5))+($B$5*32)</f>
         <v>MOD1</v>
       </c>
-      <c r="G6" s="53" t="str">
+      <c r="G6" s="26" t="str">
         <f t="shared" si="0"/>
         <v>MOD2</v>
       </c>
-      <c r="H6" s="53" t="str">
+      <c r="H6" s="26" t="str">
         <f t="shared" si="0"/>
         <v>MOD3</v>
       </c>
@@ -6727,12 +6345,12 @@
       <c r="O6" s="5">
         <v>0</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
@@ -6742,9 +6360,9 @@
     </row>
     <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="50">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="23">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="str">
@@ -6788,12 +6406,12 @@
       <c r="O7" s="5">
         <v>1</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
@@ -6803,11 +6421,11 @@
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="19">
+      <c r="B8" s="63"/>
+      <c r="C8" s="62">
         <v>1</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="23">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="str">
@@ -6851,12 +6469,12 @@
       <c r="O8" s="5">
         <v>2</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -6866,9 +6484,9 @@
     </row>
     <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="50">
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="23">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="str">
@@ -6912,12 +6530,12 @@
       <c r="O9" s="5">
         <v>3</v>
       </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
@@ -6927,11 +6545,11 @@
     </row>
     <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19">
+      <c r="B10" s="63"/>
+      <c r="C10" s="62">
         <v>2</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="23">
         <v>4</v>
       </c>
       <c r="E10" s="1" t="str">
@@ -6975,12 +6593,12 @@
       <c r="O10" s="5">
         <v>4</v>
       </c>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -6990,9 +6608,9 @@
     </row>
     <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="50">
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="23">
         <v>5</v>
       </c>
       <c r="E11" s="1" t="str">
@@ -7036,12 +6654,12 @@
       <c r="O11" s="5">
         <v>5</v>
       </c>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
@@ -7051,11 +6669,11 @@
     </row>
     <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="19">
+      <c r="B12" s="63"/>
+      <c r="C12" s="62">
         <v>3</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="23">
         <v>6</v>
       </c>
       <c r="E12" s="1" t="str">
@@ -7099,12 +6717,12 @@
       <c r="O12" s="5">
         <v>6</v>
       </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -7114,24 +6732,24 @@
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="51">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="24">
         <v>7</v>
       </c>
-      <c r="E13" s="52" t="str">
+      <c r="E13" s="25" t="str">
         <f t="shared" si="2"/>
         <v>MOD28</v>
       </c>
-      <c r="F13" s="52" t="str">
+      <c r="F13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>MOD29</v>
       </c>
-      <c r="G13" s="52" t="str">
+      <c r="G13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>MOD30</v>
       </c>
-      <c r="H13" s="52" t="str">
+      <c r="H13" s="25" t="str">
         <f t="shared" si="0"/>
         <v>MOD31</v>
       </c>
@@ -7160,12 +6778,12 @@
       <c r="O13" s="5">
         <v>7</v>
       </c>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -7175,28 +6793,28 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="78"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
@@ -7206,8 +6824,8 @@
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -7228,12 +6846,12 @@
         <v>19</v>
       </c>
       <c r="O15" s="7"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
@@ -7243,26 +6861,26 @@
     </row>
     <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
@@ -7272,32 +6890,32 @@
     </row>
     <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16" t="s">
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
@@ -7307,11 +6925,11 @@
     </row>
     <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="36">
+      <c r="B18" s="47">
         <v>1</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="3">
@@ -7347,12 +6965,12 @@
       <c r="O18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -7362,13 +6980,13 @@
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="62">
         <v>0</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="23">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="str">
@@ -7412,12 +7030,12 @@
       <c r="O19" s="5">
         <v>0</v>
       </c>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -7427,9 +7045,9 @@
     </row>
     <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="50">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="23">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="str">
@@ -7473,12 +7091,12 @@
       <c r="O20" s="5">
         <v>1</v>
       </c>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -7488,11 +7106,11 @@
     </row>
     <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="19">
+      <c r="B21" s="63"/>
+      <c r="C21" s="62">
         <v>1</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="23">
         <v>2</v>
       </c>
       <c r="E21" s="1" t="str">
@@ -7536,12 +7154,12 @@
       <c r="O21" s="5">
         <v>2</v>
       </c>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="60"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
@@ -7551,9 +7169,9 @@
     </row>
     <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="50">
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="23">
         <v>3</v>
       </c>
       <c r="E22" s="1" t="str">
@@ -7597,12 +7215,12 @@
       <c r="O22" s="5">
         <v>3</v>
       </c>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
@@ -7612,11 +7230,11 @@
     </row>
     <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="19">
+      <c r="B23" s="63"/>
+      <c r="C23" s="62">
         <v>2</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="23">
         <v>4</v>
       </c>
       <c r="E23" s="1" t="str">
@@ -7660,12 +7278,12 @@
       <c r="O23" s="5">
         <v>4</v>
       </c>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="60"/>
+      <c r="U23" s="60"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
@@ -7675,9 +7293,9 @@
     </row>
     <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="50">
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="23">
         <v>5</v>
       </c>
       <c r="E24" s="1" t="str">
@@ -7721,12 +7339,12 @@
       <c r="O24" s="5">
         <v>5</v>
       </c>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
@@ -7736,11 +7354,11 @@
     </row>
     <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="19">
+      <c r="B25" s="63"/>
+      <c r="C25" s="62">
         <v>3</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="23">
         <v>6</v>
       </c>
       <c r="E25" s="1" t="str">
@@ -7784,12 +7402,12 @@
       <c r="O25" s="5">
         <v>6</v>
       </c>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
@@ -7799,24 +7417,24 @@
     </row>
     <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="51">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="24">
         <v>7</v>
       </c>
-      <c r="E26" s="52" t="str">
+      <c r="E26" s="25" t="str">
         <f t="shared" si="6"/>
         <v>MOD60</v>
       </c>
-      <c r="F26" s="52" t="str">
+      <c r="F26" s="25" t="str">
         <f t="shared" si="4"/>
         <v>MOD61</v>
       </c>
-      <c r="G26" s="52" t="str">
+      <c r="G26" s="25" t="str">
         <f t="shared" si="4"/>
         <v>MOD62</v>
       </c>
-      <c r="H26" s="52" t="str">
+      <c r="H26" s="25" t="str">
         <f t="shared" si="4"/>
         <v>MOD63</v>
       </c>
@@ -7845,12 +7463,12 @@
       <c r="O26" s="5">
         <v>7</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
@@ -7860,28 +7478,28 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="34"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="6"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="24"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="78"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
@@ -7891,8 +7509,8 @@
     </row>
     <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="34"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -7913,12 +7531,12 @@
         <v>19</v>
       </c>
       <c r="O28" s="7"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="60"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
@@ -7928,26 +7546,26 @@
     </row>
     <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
@@ -7957,32 +7575,32 @@
     </row>
     <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="14" t="s">
+      <c r="C30" s="48"/>
+      <c r="D30" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16" t="s">
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
@@ -7992,11 +7610,11 @@
     </row>
     <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
-      <c r="B31" s="36">
+      <c r="B31" s="47">
         <v>2</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="50" t="s">
+      <c r="C31" s="75"/>
+      <c r="D31" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="3">
@@ -8032,12 +7650,12 @@
       <c r="O31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="60"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
@@ -8047,13 +7665,13 @@
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="62">
         <v>0</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="23">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="str">
@@ -8097,12 +7715,12 @@
       <c r="O32" s="5">
         <v>0</v>
       </c>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="60"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
@@ -8112,9 +7730,9 @@
     </row>
     <row r="33" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="50">
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="23">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="str">
@@ -8158,12 +7776,12 @@
       <c r="O33" s="5">
         <v>1</v>
       </c>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="60"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
@@ -8173,11 +7791,11 @@
     </row>
     <row r="34" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19">
+      <c r="B34" s="63"/>
+      <c r="C34" s="62">
         <v>1</v>
       </c>
-      <c r="D34" s="50">
+      <c r="D34" s="23">
         <v>2</v>
       </c>
       <c r="E34" s="1" t="str">
@@ -8221,12 +7839,12 @@
       <c r="O34" s="5">
         <v>2</v>
       </c>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
@@ -8236,9 +7854,9 @@
     </row>
     <row r="35" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="50">
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="23">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="str">
@@ -8282,12 +7900,12 @@
       <c r="O35" s="5">
         <v>3</v>
       </c>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="60"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
@@ -8297,11 +7915,11 @@
     </row>
     <row r="36" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="19">
+      <c r="B36" s="63"/>
+      <c r="C36" s="62">
         <v>2</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="23">
         <v>4</v>
       </c>
       <c r="E36" s="1" t="str">
@@ -8345,12 +7963,12 @@
       <c r="O36" s="5">
         <v>4</v>
       </c>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
@@ -8360,9 +7978,9 @@
     </row>
     <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="50">
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="23">
         <v>5</v>
       </c>
       <c r="E37" s="1" t="str">
@@ -8406,12 +8024,12 @@
       <c r="O37" s="5">
         <v>5</v>
       </c>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
@@ -8421,11 +8039,11 @@
     </row>
     <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="19">
+      <c r="B38" s="63"/>
+      <c r="C38" s="62">
         <v>3</v>
       </c>
-      <c r="D38" s="50">
+      <c r="D38" s="23">
         <v>6</v>
       </c>
       <c r="E38" s="1" t="str">
@@ -8469,12 +8087,12 @@
       <c r="O38" s="5">
         <v>6</v>
       </c>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
@@ -8484,24 +8102,24 @@
     </row>
     <row r="39" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="51">
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="24">
         <v>7</v>
       </c>
-      <c r="E39" s="52" t="str">
+      <c r="E39" s="25" t="str">
         <f t="shared" si="10"/>
         <v>MOD92</v>
       </c>
-      <c r="F39" s="52" t="str">
+      <c r="F39" s="25" t="str">
         <f t="shared" si="8"/>
         <v>MOD93</v>
       </c>
-      <c r="G39" s="52" t="str">
+      <c r="G39" s="25" t="str">
         <f t="shared" si="8"/>
         <v>MOD94</v>
       </c>
-      <c r="H39" s="52" t="str">
+      <c r="H39" s="25" t="str">
         <f t="shared" si="8"/>
         <v>MOD95</v>
       </c>
@@ -8530,12 +8148,12 @@
       <c r="O39" s="5">
         <v>7</v>
       </c>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="60"/>
+      <c r="R39" s="60"/>
+      <c r="S39" s="60"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="60"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
@@ -8545,28 +8163,28 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="34"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
       <c r="I40" s="6"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="22" t="s">
+      <c r="K40" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="24"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="78"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="60"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="60"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
@@ -8576,8 +8194,8 @@
     </row>
     <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="34"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -8598,12 +8216,12 @@
         <v>19</v>
       </c>
       <c r="O41" s="7"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
@@ -8613,26 +8231,26 @@
     </row>
     <row r="42" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="60"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
@@ -8642,32 +8260,32 @@
     </row>
     <row r="43" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="14" t="s">
+      <c r="C43" s="48"/>
+      <c r="D43" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16" t="s">
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="60"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
@@ -8677,11 +8295,11 @@
     </row>
     <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
-      <c r="B44" s="36">
+      <c r="B44" s="47">
         <v>3</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="50" t="s">
+      <c r="C44" s="75"/>
+      <c r="D44" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="3">
@@ -8717,12 +8335,12 @@
       <c r="O44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="60"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
@@ -8732,13 +8350,13 @@
     </row>
     <row r="45" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="62">
         <v>0</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="23">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="str">
@@ -8782,12 +8400,12 @@
       <c r="O45" s="5">
         <v>0</v>
       </c>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
@@ -8797,9 +8415,9 @@
     </row>
     <row r="46" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="50">
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="23">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="str">
@@ -8843,12 +8461,12 @@
       <c r="O46" s="5">
         <v>1</v>
       </c>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
       <c r="V46" s="11"/>
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
@@ -8858,11 +8476,11 @@
     </row>
     <row r="47" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="19">
+      <c r="B47" s="63"/>
+      <c r="C47" s="62">
         <v>1</v>
       </c>
-      <c r="D47" s="50">
+      <c r="D47" s="23">
         <v>2</v>
       </c>
       <c r="E47" s="1" t="str">
@@ -8906,12 +8524,12 @@
       <c r="O47" s="5">
         <v>2</v>
       </c>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
       <c r="V47" s="11"/>
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
@@ -8921,9 +8539,9 @@
     </row>
     <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="50">
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="23">
         <v>3</v>
       </c>
       <c r="E48" s="1" t="str">
@@ -8967,12 +8585,12 @@
       <c r="O48" s="5">
         <v>3</v>
       </c>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="60"/>
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
@@ -8982,11 +8600,11 @@
     </row>
     <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="19">
+      <c r="B49" s="63"/>
+      <c r="C49" s="62">
         <v>2</v>
       </c>
-      <c r="D49" s="50">
+      <c r="D49" s="23">
         <v>4</v>
       </c>
       <c r="E49" s="1" t="str">
@@ -9030,12 +8648,12 @@
       <c r="O49" s="5">
         <v>4</v>
       </c>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="60"/>
+      <c r="U49" s="60"/>
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
@@ -9045,9 +8663,9 @@
     </row>
     <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="50">
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="23">
         <v>5</v>
       </c>
       <c r="E50" s="1" t="str">
@@ -9091,12 +8709,12 @@
       <c r="O50" s="5">
         <v>5</v>
       </c>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="60"/>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
@@ -9106,11 +8724,11 @@
     </row>
     <row r="51" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="19">
+      <c r="B51" s="63"/>
+      <c r="C51" s="62">
         <v>3</v>
       </c>
-      <c r="D51" s="50">
+      <c r="D51" s="23">
         <v>6</v>
       </c>
       <c r="E51" s="1" t="str">
@@ -9154,12 +8772,12 @@
       <c r="O51" s="5">
         <v>6</v>
       </c>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="60"/>
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
@@ -9169,24 +8787,24 @@
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="51">
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="24">
         <v>7</v>
       </c>
-      <c r="E52" s="52" t="str">
+      <c r="E52" s="25" t="str">
         <f t="shared" si="14"/>
         <v>MOD124</v>
       </c>
-      <c r="F52" s="52" t="str">
+      <c r="F52" s="25" t="str">
         <f t="shared" si="12"/>
         <v>MOD125</v>
       </c>
-      <c r="G52" s="52" t="str">
+      <c r="G52" s="25" t="str">
         <f t="shared" si="12"/>
         <v>MOD126</v>
       </c>
-      <c r="H52" s="52" t="str">
+      <c r="H52" s="25" t="str">
         <f t="shared" si="12"/>
         <v>MOD127</v>
       </c>
@@ -9215,12 +8833,12 @@
       <c r="O52" s="5">
         <v>7</v>
       </c>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="32"/>
-      <c r="R52" s="32"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="32"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="60"/>
       <c r="V52" s="11"/>
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
@@ -9230,28 +8848,28 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="34"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
       <c r="I53" s="6"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="22" t="s">
+      <c r="K53" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="24"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="77"/>
+      <c r="N53" s="78"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="32"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="60"/>
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
@@ -9261,34 +8879,34 @@
     </row>
     <row r="54" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
       <c r="J54" s="7"/>
-      <c r="K54" s="48" t="s">
+      <c r="K54" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L54" s="48" t="s">
+      <c r="L54" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M54" s="48" t="s">
+      <c r="M54" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N54" s="48" t="s">
+      <c r="N54" s="21" t="s">
         <v>19</v>
       </c>
       <c r="O54" s="7"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="32"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="60"/>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
@@ -9298,26 +8916,26 @@
     </row>
     <row r="55" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="44"/>
-      <c r="L55" s="44"/>
-      <c r="M55" s="44"/>
-      <c r="N55" s="44"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="32"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="60"/>
+      <c r="U55" s="60"/>
       <c r="V55" s="11"/>
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
@@ -9327,48 +8945,48 @@
     </row>
     <row r="56" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="42" t="s">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="42">
+      <c r="E56" s="18">
         <v>0</v>
       </c>
-      <c r="F56" s="42">
+      <c r="F56" s="18">
         <v>1</v>
       </c>
-      <c r="G56" s="42">
+      <c r="G56" s="18">
         <v>2</v>
       </c>
-      <c r="H56" s="42">
+      <c r="H56" s="18">
         <v>3</v>
       </c>
-      <c r="I56" s="42">
+      <c r="I56" s="18">
         <v>4</v>
       </c>
-      <c r="J56" s="42">
+      <c r="J56" s="18">
         <v>5</v>
       </c>
-      <c r="K56" s="42">
+      <c r="K56" s="18">
         <v>6</v>
       </c>
-      <c r="L56" s="42">
+      <c r="L56" s="18">
         <v>7</v>
       </c>
-      <c r="M56" s="42">
+      <c r="M56" s="18">
         <v>8</v>
       </c>
-      <c r="N56" s="42" t="s">
+      <c r="N56" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O56" s="35"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="60"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="60"/>
+      <c r="T56" s="60"/>
+      <c r="U56" s="60"/>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
@@ -9378,8 +8996,8 @@
     </row>
     <row r="57" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="12">
         <v>0</v>
       </c>
@@ -9403,13 +9021,13 @@
       <c r="N57" s="12">
         <v>0</v>
       </c>
-      <c r="O57" s="35"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="32"/>
-      <c r="U57" s="32"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="61"/>
+      <c r="Q57" s="60"/>
+      <c r="R57" s="60"/>
+      <c r="S57" s="60"/>
+      <c r="T57" s="60"/>
+      <c r="U57" s="60"/>
       <c r="V57" s="11"/>
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
@@ -9419,8 +9037,8 @@
     </row>
     <row r="58" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="12">
         <v>1</v>
       </c>
@@ -9450,13 +9068,13 @@
       <c r="N58" s="12">
         <v>1</v>
       </c>
-      <c r="O58" s="35"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="32"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="61"/>
+      <c r="Q58" s="60"/>
+      <c r="R58" s="60"/>
+      <c r="S58" s="60"/>
+      <c r="T58" s="60"/>
+      <c r="U58" s="60"/>
       <c r="V58" s="11"/>
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
@@ -9466,8 +9084,8 @@
     </row>
     <row r="59" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="12">
         <v>2</v>
       </c>
@@ -9499,13 +9117,13 @@
       <c r="N59" s="12">
         <v>2</v>
       </c>
-      <c r="O59" s="35"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="32"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="32"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="60"/>
+      <c r="R59" s="60"/>
+      <c r="S59" s="60"/>
+      <c r="T59" s="60"/>
+      <c r="U59" s="60"/>
       <c r="V59" s="11"/>
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
@@ -9515,8 +9133,8 @@
     </row>
     <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="12">
         <v>3</v>
       </c>
@@ -9540,13 +9158,13 @@
       <c r="N60" s="12">
         <v>3</v>
       </c>
-      <c r="O60" s="35"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="32"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="60"/>
+      <c r="U60" s="60"/>
       <c r="V60" s="11"/>
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
@@ -9556,30 +9174,30 @@
     </row>
     <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="40" t="s">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="40" t="s">
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O61" s="35"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-      <c r="T61" s="32"/>
-      <c r="U61" s="32"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="60"/>
+      <c r="R61" s="60"/>
+      <c r="S61" s="60"/>
+      <c r="T61" s="60"/>
+      <c r="U61" s="60"/>
       <c r="V61" s="11"/>
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
@@ -9589,26 +9207,26 @@
     </row>
     <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="45"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="32"/>
-      <c r="U62" s="32"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="60"/>
+      <c r="Q62" s="60"/>
+      <c r="R62" s="60"/>
+      <c r="S62" s="60"/>
+      <c r="T62" s="60"/>
+      <c r="U62" s="60"/>
       <c r="V62" s="11"/>
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
@@ -9618,48 +9236,48 @@
     </row>
     <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="42" t="s">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="42">
+      <c r="E63" s="18">
         <v>0</v>
       </c>
-      <c r="F63" s="42">
+      <c r="F63" s="18">
         <v>1</v>
       </c>
-      <c r="G63" s="42">
+      <c r="G63" s="18">
         <v>2</v>
       </c>
-      <c r="H63" s="42">
+      <c r="H63" s="18">
         <v>3</v>
       </c>
-      <c r="I63" s="42">
+      <c r="I63" s="18">
         <v>4</v>
       </c>
-      <c r="J63" s="42">
+      <c r="J63" s="18">
         <v>5</v>
       </c>
-      <c r="K63" s="42">
+      <c r="K63" s="18">
         <v>6</v>
       </c>
-      <c r="L63" s="42">
+      <c r="L63" s="18">
         <v>7</v>
       </c>
-      <c r="M63" s="42">
+      <c r="M63" s="18">
         <v>8</v>
       </c>
-      <c r="N63" s="42" t="s">
+      <c r="N63" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="35"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="32"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="60"/>
+      <c r="R63" s="60"/>
+      <c r="S63" s="60"/>
+      <c r="T63" s="60"/>
+      <c r="U63" s="60"/>
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
@@ -9669,8 +9287,8 @@
     </row>
     <row r="64" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="12">
         <v>0</v>
       </c>
@@ -9694,13 +9312,13 @@
       <c r="N64" s="12">
         <v>0</v>
       </c>
-      <c r="O64" s="35"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="32"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="60"/>
+      <c r="R64" s="60"/>
+      <c r="S64" s="60"/>
+      <c r="T64" s="60"/>
+      <c r="U64" s="60"/>
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
@@ -9710,8 +9328,8 @@
     </row>
     <row r="65" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="12">
         <v>1</v>
       </c>
@@ -9741,13 +9359,13 @@
       <c r="N65" s="12">
         <v>1</v>
       </c>
-      <c r="O65" s="35"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="60"/>
+      <c r="R65" s="60"/>
+      <c r="S65" s="60"/>
+      <c r="T65" s="60"/>
+      <c r="U65" s="60"/>
       <c r="V65" s="11"/>
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
@@ -9757,8 +9375,8 @@
     </row>
     <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="12">
         <v>2</v>
       </c>
@@ -9790,13 +9408,13 @@
       <c r="N66" s="12">
         <v>2</v>
       </c>
-      <c r="O66" s="35"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="32"/>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="60"/>
+      <c r="R66" s="60"/>
+      <c r="S66" s="60"/>
+      <c r="T66" s="60"/>
+      <c r="U66" s="60"/>
       <c r="V66" s="11"/>
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
@@ -9806,8 +9424,8 @@
     </row>
     <row r="67" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="12">
         <v>3</v>
       </c>
@@ -9831,13 +9449,13 @@
       <c r="N67" s="12">
         <v>3</v>
       </c>
-      <c r="O67" s="35"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="32"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="32"/>
-      <c r="T67" s="32"/>
-      <c r="U67" s="32"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="60"/>
+      <c r="R67" s="60"/>
+      <c r="S67" s="60"/>
+      <c r="T67" s="60"/>
+      <c r="U67" s="60"/>
       <c r="V67" s="11"/>
       <c r="W67" s="11"/>
       <c r="X67" s="11"/>
@@ -9847,8 +9465,8 @@
     </row>
     <row r="68" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="12" t="s">
         <v>20</v>
       </c>
@@ -9864,13 +9482,13 @@
       <c r="N68" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="35"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="32"/>
-      <c r="T68" s="32"/>
-      <c r="U68" s="32"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="60"/>
+      <c r="R68" s="60"/>
+      <c r="S68" s="60"/>
+      <c r="T68" s="60"/>
+      <c r="U68" s="60"/>
       <c r="V68" s="11"/>
       <c r="W68" s="11"/>
       <c r="X68" s="11"/>
@@ -9880,26 +9498,26 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="32"/>
-      <c r="T69" s="32"/>
-      <c r="U69" s="32"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="65"/>
+      <c r="N69" s="65"/>
+      <c r="O69" s="65"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="60"/>
+      <c r="R69" s="60"/>
+      <c r="S69" s="60"/>
+      <c r="T69" s="60"/>
+      <c r="U69" s="60"/>
       <c r="V69" s="11"/>
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
@@ -9909,26 +9527,26 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="27"/>
-      <c r="Q70" s="27"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="27"/>
-      <c r="T70" s="27"/>
-      <c r="U70" s="27"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="74"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="74"/>
+      <c r="O70" s="74"/>
+      <c r="P70" s="74"/>
+      <c r="Q70" s="74"/>
+      <c r="R70" s="74"/>
+      <c r="S70" s="74"/>
+      <c r="T70" s="74"/>
+      <c r="U70" s="74"/>
       <c r="V70" s="11"/>
       <c r="W70" s="11"/>
       <c r="X70" s="11"/>
@@ -10585,27 +10203,20 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B69:O69"/>
-    <mergeCell ref="B70:U70"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="B55:O55"/>
-    <mergeCell ref="B62:O62"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B42:O42"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="B3:O3"/>
@@ -10622,22 +10233,29 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="J17:O17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B42:O42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="B69:O69"/>
+    <mergeCell ref="B70:U70"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="B55:O55"/>
+    <mergeCell ref="B62:O62"/>
   </mergeCells>
-  <conditionalFormatting sqref="E32:I40 E6:I14 K14 K19:N26 E19:I27 K32:N39">
+  <conditionalFormatting sqref="E6:I14 K14 K19:N26 E19:I27 K32:N39 E32:I40">
     <cfRule type="expression" dxfId="8" priority="7">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>

--- a/S2T/BASELINE/S2T/product_specific/dmr/LoggerFiles/TileView_Template.xlsx
+++ b/S2T/BASELINE/S2T/product_specific/dmr/LoggerFiles/TileView_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Automation\Automation\S2T\BASELINE\S2T\product_specific\dmr\LoggerFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3045465-8D7F-415F-8DC9-74D3CEB24C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A055D8-DD64-4596-BB21-3228F454D2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3DA75837-8C0C-4B6E-9F29-CC335C1414E1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DA75837-8C0C-4B6E-9F29-CC335C1414E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
@@ -1557,11 +1557,98 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1590,95 +1677,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1689,8 +1689,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2187,28 +2187,28 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
@@ -2218,20 +2218,20 @@
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
       <c r="P3" s="58"/>
       <c r="Q3" s="59"/>
       <c r="R3" s="59"/>
@@ -2247,26 +2247,26 @@
     </row>
     <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="72"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
       <c r="P4" s="60"/>
       <c r="Q4" s="60"/>
       <c r="R4" s="60"/>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
-      <c r="B5" s="47">
+      <c r="B5" s="51">
         <v>0</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="23" t="s">
         <v>15</v>
       </c>
@@ -2337,10 +2337,10 @@
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="44">
         <v>0</v>
       </c>
       <c r="D6" s="23">
@@ -2394,8 +2394,8 @@
     </row>
     <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="23">
         <v>1</v>
       </c>
@@ -2447,8 +2447,8 @@
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="35">
+      <c r="B8" s="36"/>
+      <c r="C8" s="44">
         <v>1</v>
       </c>
       <c r="D8" s="23">
@@ -2502,8 +2502,8 @@
     </row>
     <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="50"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="23">
         <v>3</v>
       </c>
@@ -2555,8 +2555,8 @@
     </row>
     <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="35">
+      <c r="B10" s="36"/>
+      <c r="C10" s="44">
         <v>2</v>
       </c>
       <c r="D10" s="23">
@@ -2610,8 +2610,8 @@
     </row>
     <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="50"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="23">
         <v>5</v>
       </c>
@@ -2663,8 +2663,8 @@
     </row>
     <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="35">
+      <c r="B12" s="36"/>
+      <c r="C12" s="44">
         <v>3</v>
       </c>
       <c r="D12" s="23">
@@ -2718,8 +2718,8 @@
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="24">
         <v>7</v>
       </c>
@@ -2771,21 +2771,21 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="63"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="30"/>
-      <c r="K14" s="52" t="s">
+      <c r="K14" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="54"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="31"/>
       <c r="P14" s="60"/>
       <c r="Q14" s="60"/>
@@ -2802,14 +2802,14 @@
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
-      <c r="B15" s="73"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
       <c r="J15" s="32"/>
       <c r="K15" s="33" t="s">
         <v>19</v>
@@ -2839,20 +2839,20 @@
     </row>
     <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
       <c r="P16" s="61"/>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -2868,26 +2868,26 @@
     </row>
     <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="67" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70" t="s">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="72"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="49"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="60"/>
       <c r="R17" s="60"/>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="47">
+      <c r="B18" s="51">
         <v>1</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="23" t="s">
         <v>15</v>
       </c>
@@ -2958,10 +2958,10 @@
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="44">
         <v>0</v>
       </c>
       <c r="D19" s="23">
@@ -3015,8 +3015,8 @@
     </row>
     <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="23">
         <v>1</v>
       </c>
@@ -3068,8 +3068,8 @@
     </row>
     <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="35">
+      <c r="B21" s="36"/>
+      <c r="C21" s="44">
         <v>1</v>
       </c>
       <c r="D21" s="23">
@@ -3123,8 +3123,8 @@
     </row>
     <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="50"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="23">
         <v>3</v>
       </c>
@@ -3176,8 +3176,8 @@
     </row>
     <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="35">
+      <c r="B23" s="36"/>
+      <c r="C23" s="44">
         <v>2</v>
       </c>
       <c r="D23" s="23">
@@ -3231,8 +3231,8 @@
     </row>
     <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="23">
         <v>5</v>
       </c>
@@ -3284,8 +3284,8 @@
     </row>
     <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="35">
+      <c r="B25" s="36"/>
+      <c r="C25" s="44">
         <v>3</v>
       </c>
       <c r="D25" s="23">
@@ -3339,8 +3339,8 @@
     </row>
     <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="24">
         <v>7</v>
       </c>
@@ -3392,21 +3392,21 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="63"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="30"/>
-      <c r="K27" s="52" t="s">
+      <c r="K27" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="54"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="40"/>
       <c r="O27" s="31"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="60"/>
@@ -3423,14 +3423,14 @@
     </row>
     <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
-      <c r="B28" s="73"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="71"/>
       <c r="J28" s="32"/>
       <c r="K28" s="33" t="s">
         <v>19</v>
@@ -3460,20 +3460,20 @@
     </row>
     <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
       <c r="P29" s="61"/>
       <c r="Q29" s="60"/>
       <c r="R29" s="60"/>
@@ -3489,26 +3489,26 @@
     </row>
     <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="67" t="s">
+      <c r="C30" s="52"/>
+      <c r="D30" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="70" t="s">
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="72"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="49"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="60"/>
       <c r="R30" s="60"/>
@@ -3524,10 +3524,10 @@
     </row>
     <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
-      <c r="B31" s="47">
+      <c r="B31" s="51">
         <v>2</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="23" t="s">
         <v>15</v>
       </c>
@@ -3579,10 +3579,10 @@
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="44">
         <v>0</v>
       </c>
       <c r="D32" s="23">
@@ -3636,8 +3636,8 @@
     </row>
     <row r="33" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="50"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="23">
         <v>1</v>
       </c>
@@ -3689,8 +3689,8 @@
     </row>
     <row r="34" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="35">
+      <c r="B34" s="36"/>
+      <c r="C34" s="44">
         <v>1</v>
       </c>
       <c r="D34" s="23">
@@ -3744,8 +3744,8 @@
     </row>
     <row r="35" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="50"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="23">
         <v>3</v>
       </c>
@@ -3797,8 +3797,8 @@
     </row>
     <row r="36" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="35">
+      <c r="B36" s="36"/>
+      <c r="C36" s="44">
         <v>2</v>
       </c>
       <c r="D36" s="23">
@@ -3852,8 +3852,8 @@
     </row>
     <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="50"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="23">
         <v>5</v>
       </c>
@@ -3905,8 +3905,8 @@
     </row>
     <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="35">
+      <c r="B38" s="36"/>
+      <c r="C38" s="44">
         <v>3</v>
       </c>
       <c r="D38" s="23">
@@ -3960,8 +3960,8 @@
     </row>
     <row r="39" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="24">
         <v>7</v>
       </c>
@@ -4013,21 +4013,21 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="63"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="68"/>
       <c r="J40" s="30"/>
-      <c r="K40" s="52" t="s">
+      <c r="K40" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="54"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="40"/>
       <c r="O40" s="31"/>
       <c r="P40" s="60"/>
       <c r="Q40" s="60"/>
@@ -4044,14 +4044,14 @@
     </row>
     <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
-      <c r="B41" s="73"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="71"/>
       <c r="J41" s="32"/>
       <c r="K41" s="33" t="s">
         <v>19</v>
@@ -4081,20 +4081,20 @@
     </row>
     <row r="42" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
       <c r="P42" s="61"/>
       <c r="Q42" s="60"/>
       <c r="R42" s="60"/>
@@ -4110,26 +4110,26 @@
     </row>
     <row r="43" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="67" t="s">
+      <c r="C43" s="52"/>
+      <c r="D43" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70" t="s">
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="72"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="49"/>
       <c r="P43" s="60"/>
       <c r="Q43" s="60"/>
       <c r="R43" s="60"/>
@@ -4145,10 +4145,10 @@
     </row>
     <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
-      <c r="B44" s="47">
+      <c r="B44" s="51">
         <v>3</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="23" t="s">
         <v>15</v>
       </c>
@@ -4200,10 +4200,10 @@
     </row>
     <row r="45" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="44">
         <v>0</v>
       </c>
       <c r="D45" s="23">
@@ -4257,8 +4257,8 @@
     </row>
     <row r="46" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="50"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="23">
         <v>1</v>
       </c>
@@ -4310,8 +4310,8 @@
     </row>
     <row r="47" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="35">
+      <c r="B47" s="36"/>
+      <c r="C47" s="44">
         <v>1</v>
       </c>
       <c r="D47" s="23">
@@ -4365,8 +4365,8 @@
     </row>
     <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="50"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="23">
         <v>3</v>
       </c>
@@ -4418,8 +4418,8 @@
     </row>
     <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="35">
+      <c r="B49" s="36"/>
+      <c r="C49" s="44">
         <v>2</v>
       </c>
       <c r="D49" s="23">
@@ -4473,8 +4473,8 @@
     </row>
     <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="50"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="23">
         <v>5</v>
       </c>
@@ -4526,8 +4526,8 @@
     </row>
     <row r="51" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="35">
+      <c r="B51" s="36"/>
+      <c r="C51" s="44">
         <v>3</v>
       </c>
       <c r="D51" s="23">
@@ -4581,8 +4581,8 @@
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="24">
         <v>7</v>
       </c>
@@ -4634,21 +4634,21 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="63"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="39"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="68"/>
       <c r="J53" s="30"/>
-      <c r="K53" s="52" t="s">
+      <c r="K53" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="54"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="40"/>
       <c r="O53" s="31"/>
       <c r="P53" s="60"/>
       <c r="Q53" s="60"/>
@@ -4665,14 +4665,14 @@
     </row>
     <row r="54" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
-      <c r="B54" s="63"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="42"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="71"/>
       <c r="J54" s="32"/>
       <c r="K54" s="33" t="s">
         <v>19</v>
@@ -5284,20 +5284,20 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="65"/>
-      <c r="M69" s="65"/>
-      <c r="N69" s="65"/>
-      <c r="O69" s="65"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
       <c r="P69" s="61"/>
       <c r="Q69" s="60"/>
       <c r="R69" s="60"/>
@@ -5313,26 +5313,26 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="74"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="74"/>
-      <c r="K70" s="74"/>
-      <c r="L70" s="74"/>
-      <c r="M70" s="74"/>
-      <c r="N70" s="74"/>
-      <c r="O70" s="74"/>
-      <c r="P70" s="74"/>
-      <c r="Q70" s="74"/>
-      <c r="R70" s="74"/>
-      <c r="S70" s="74"/>
-      <c r="T70" s="74"/>
-      <c r="U70" s="74"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="50"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="50"/>
+      <c r="S70" s="50"/>
+      <c r="T70" s="50"/>
+      <c r="U70" s="50"/>
       <c r="V70" s="11"/>
       <c r="W70" s="11"/>
       <c r="X70" s="11"/>
@@ -5989,28 +5989,22 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="B70:U70"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D53:I54"/>
+    <mergeCell ref="D40:I41"/>
+    <mergeCell ref="D27:I28"/>
+    <mergeCell ref="D14:I15"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="J17:O17"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="K53:N53"/>
     <mergeCell ref="B62:O62"/>
@@ -6027,23 +6021,29 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:O4"/>
     <mergeCell ref="B3:O3"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="B70:U70"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
     <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D53:I54"/>
-    <mergeCell ref="D40:I41"/>
-    <mergeCell ref="D27:I28"/>
-    <mergeCell ref="D14:I15"/>
-    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E6:I13 K14 E19:I26 K19:N26 E32:I39 K32:N39">
@@ -6145,28 +6145,28 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
@@ -6176,20 +6176,20 @@
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
       <c r="P3" s="58"/>
       <c r="Q3" s="59"/>
       <c r="R3" s="59"/>
@@ -6205,26 +6205,26 @@
     </row>
     <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="68" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="79"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="75"/>
       <c r="P4" s="61"/>
       <c r="Q4" s="60"/>
       <c r="R4" s="60"/>
@@ -6240,10 +6240,10 @@
     </row>
     <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
-      <c r="B5" s="47">
+      <c r="B5" s="51">
         <v>0</v>
       </c>
-      <c r="C5" s="75"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
@@ -6295,10 +6295,10 @@
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="35">
         <v>0</v>
       </c>
       <c r="D6" s="23">
@@ -6360,8 +6360,8 @@
     </row>
     <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="23">
         <v>1</v>
       </c>
@@ -6421,8 +6421,8 @@
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="62">
+      <c r="B8" s="36"/>
+      <c r="C8" s="35">
         <v>1</v>
       </c>
       <c r="D8" s="23">
@@ -6484,8 +6484,8 @@
     </row>
     <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="23">
         <v>3</v>
       </c>
@@ -6545,8 +6545,8 @@
     </row>
     <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="62">
+      <c r="B10" s="36"/>
+      <c r="C10" s="35">
         <v>2</v>
       </c>
       <c r="D10" s="23">
@@ -6608,8 +6608,8 @@
     </row>
     <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="23">
         <v>5</v>
       </c>
@@ -6669,8 +6669,8 @@
     </row>
     <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="62">
+      <c r="B12" s="36"/>
+      <c r="C12" s="35">
         <v>3</v>
       </c>
       <c r="D12" s="23">
@@ -6732,8 +6732,8 @@
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="24">
         <v>7</v>
       </c>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="63"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="14"/>
       <c r="D14" s="6"/>
       <c r="E14" s="22"/>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
-      <c r="B15" s="73"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="14"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -6861,20 +6861,20 @@
     </row>
     <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
       <c r="P16" s="61"/>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -6890,26 +6890,26 @@
     </row>
     <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="68" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70" t="s">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="79"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="75"/>
       <c r="P17" s="61"/>
       <c r="Q17" s="60"/>
       <c r="R17" s="60"/>
@@ -6925,10 +6925,10 @@
     </row>
     <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="47">
+      <c r="B18" s="51">
         <v>1</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="23" t="s">
         <v>15</v>
       </c>
@@ -6980,10 +6980,10 @@
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="35">
         <v>0</v>
       </c>
       <c r="D19" s="23">
@@ -7045,8 +7045,8 @@
     </row>
     <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="23">
         <v>1</v>
       </c>
@@ -7106,8 +7106,8 @@
     </row>
     <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="62">
+      <c r="B21" s="36"/>
+      <c r="C21" s="35">
         <v>1</v>
       </c>
       <c r="D21" s="23">
@@ -7169,8 +7169,8 @@
     </row>
     <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="23">
         <v>3</v>
       </c>
@@ -7230,8 +7230,8 @@
     </row>
     <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="62">
+      <c r="B23" s="36"/>
+      <c r="C23" s="35">
         <v>2</v>
       </c>
       <c r="D23" s="23">
@@ -7293,8 +7293,8 @@
     </row>
     <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="23">
         <v>5</v>
       </c>
@@ -7354,8 +7354,8 @@
     </row>
     <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="62">
+      <c r="B25" s="36"/>
+      <c r="C25" s="35">
         <v>3</v>
       </c>
       <c r="D25" s="23">
@@ -7417,8 +7417,8 @@
     </row>
     <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="24">
         <v>7</v>
       </c>
@@ -7478,7 +7478,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="63"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="14"/>
       <c r="D27" s="6"/>
       <c r="E27" s="22"/>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
-      <c r="B28" s="73"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="14"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
@@ -7546,20 +7546,20 @@
     </row>
     <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
       <c r="P29" s="61"/>
       <c r="Q29" s="60"/>
       <c r="R29" s="60"/>
@@ -7575,26 +7575,26 @@
     </row>
     <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="68" t="s">
+      <c r="C30" s="52"/>
+      <c r="D30" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="70" t="s">
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="79"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="75"/>
       <c r="P30" s="61"/>
       <c r="Q30" s="60"/>
       <c r="R30" s="60"/>
@@ -7610,10 +7610,10 @@
     </row>
     <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
-      <c r="B31" s="47">
+      <c r="B31" s="51">
         <v>2</v>
       </c>
-      <c r="C31" s="75"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="23" t="s">
         <v>15</v>
       </c>
@@ -7665,10 +7665,10 @@
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="62">
+      <c r="C32" s="35">
         <v>0</v>
       </c>
       <c r="D32" s="23">
@@ -7730,8 +7730,8 @@
     </row>
     <row r="33" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="23">
         <v>1</v>
       </c>
@@ -7791,8 +7791,8 @@
     </row>
     <row r="34" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="62">
+      <c r="B34" s="36"/>
+      <c r="C34" s="35">
         <v>1</v>
       </c>
       <c r="D34" s="23">
@@ -7854,8 +7854,8 @@
     </row>
     <row r="35" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="23">
         <v>3</v>
       </c>
@@ -7915,8 +7915,8 @@
     </row>
     <row r="36" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="62">
+      <c r="B36" s="36"/>
+      <c r="C36" s="35">
         <v>2</v>
       </c>
       <c r="D36" s="23">
@@ -7978,8 +7978,8 @@
     </row>
     <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="23">
         <v>5</v>
       </c>
@@ -8039,8 +8039,8 @@
     </row>
     <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="62">
+      <c r="B38" s="36"/>
+      <c r="C38" s="35">
         <v>3</v>
       </c>
       <c r="D38" s="23">
@@ -8102,8 +8102,8 @@
     </row>
     <row r="39" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="24">
         <v>7</v>
       </c>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="63"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="14"/>
       <c r="D40" s="6"/>
       <c r="E40" s="22"/>
@@ -8194,7 +8194,7 @@
     </row>
     <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
-      <c r="B41" s="73"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="14"/>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
@@ -8231,20 +8231,20 @@
     </row>
     <row r="42" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="65"/>
-      <c r="M42" s="65"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
       <c r="P42" s="61"/>
       <c r="Q42" s="60"/>
       <c r="R42" s="60"/>
@@ -8260,26 +8260,26 @@
     </row>
     <row r="43" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="68" t="s">
+      <c r="C43" s="52"/>
+      <c r="D43" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70" t="s">
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="79"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="75"/>
       <c r="P43" s="61"/>
       <c r="Q43" s="60"/>
       <c r="R43" s="60"/>
@@ -8295,10 +8295,10 @@
     </row>
     <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
-      <c r="B44" s="47">
+      <c r="B44" s="51">
         <v>3</v>
       </c>
-      <c r="C44" s="75"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="23" t="s">
         <v>15</v>
       </c>
@@ -8350,10 +8350,10 @@
     </row>
     <row r="45" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="62">
+      <c r="C45" s="35">
         <v>0</v>
       </c>
       <c r="D45" s="23">
@@ -8415,8 +8415,8 @@
     </row>
     <row r="46" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
       <c r="D46" s="23">
         <v>1</v>
       </c>
@@ -8476,8 +8476,8 @@
     </row>
     <row r="47" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="62">
+      <c r="B47" s="36"/>
+      <c r="C47" s="35">
         <v>1</v>
       </c>
       <c r="D47" s="23">
@@ -8539,8 +8539,8 @@
     </row>
     <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="23">
         <v>3</v>
       </c>
@@ -8600,8 +8600,8 @@
     </row>
     <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="62">
+      <c r="B49" s="36"/>
+      <c r="C49" s="35">
         <v>2</v>
       </c>
       <c r="D49" s="23">
@@ -8663,8 +8663,8 @@
     </row>
     <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="23">
         <v>5</v>
       </c>
@@ -8724,8 +8724,8 @@
     </row>
     <row r="51" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="62">
+      <c r="B51" s="36"/>
+      <c r="C51" s="35">
         <v>3</v>
       </c>
       <c r="D51" s="23">
@@ -8787,8 +8787,8 @@
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="24">
         <v>7</v>
       </c>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="63"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="14"/>
       <c r="D53" s="6"/>
       <c r="E53" s="22"/>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="54" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
-      <c r="B54" s="63"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="14"/>
       <c r="D54" s="19"/>
       <c r="E54" s="20"/>
@@ -9498,20 +9498,20 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="65"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="65"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="65"/>
-      <c r="M69" s="65"/>
-      <c r="N69" s="65"/>
-      <c r="O69" s="65"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
       <c r="P69" s="61"/>
       <c r="Q69" s="60"/>
       <c r="R69" s="60"/>
@@ -9527,26 +9527,26 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-      <c r="F70" s="74"/>
-      <c r="G70" s="74"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="74"/>
-      <c r="K70" s="74"/>
-      <c r="L70" s="74"/>
-      <c r="M70" s="74"/>
-      <c r="N70" s="74"/>
-      <c r="O70" s="74"/>
-      <c r="P70" s="74"/>
-      <c r="Q70" s="74"/>
-      <c r="R70" s="74"/>
-      <c r="S70" s="74"/>
-      <c r="T70" s="74"/>
-      <c r="U70" s="74"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="50"/>
+      <c r="P70" s="50"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="50"/>
+      <c r="S70" s="50"/>
+      <c r="T70" s="50"/>
+      <c r="U70" s="50"/>
       <c r="V70" s="11"/>
       <c r="W70" s="11"/>
       <c r="X70" s="11"/>
@@ -10203,20 +10203,17 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B42:O42"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B69:O69"/>
+    <mergeCell ref="B70:U70"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="B55:O55"/>
+    <mergeCell ref="B62:O62"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="B3:O3"/>
@@ -10233,6 +10230,15 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="J17:O17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B42:O42"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:I30"/>
     <mergeCell ref="J30:O30"/>
@@ -10240,20 +10246,14 @@
     <mergeCell ref="B32:B41"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="B29:O29"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="K40:N40"/>
-    <mergeCell ref="B69:O69"/>
-    <mergeCell ref="B70:U70"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="B55:O55"/>
-    <mergeCell ref="B62:O62"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:I14 K14 K19:N26 E19:I27 K32:N39 E32:I40">
     <cfRule type="expression" dxfId="8" priority="7">

--- a/S2T/BASELINE/S2T/product_specific/dmr/LoggerFiles/TileView_Template.xlsx
+++ b/S2T/BASELINE/S2T/product_specific/dmr/LoggerFiles/TileView_Template.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Automation\Automation\S2T\BASELINE\S2T\product_specific\dmr\LoggerFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A055D8-DD64-4596-BB21-3228F454D2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636B0EA7-C30D-4741-BE4B-4A2DB1D2BDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DA75837-8C0C-4B6E-9F29-CC335C1414E1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DA75837-8C0C-4B6E-9F29-CC335C1414E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1455,7 +1456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1494,11 +1495,83 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1508,6 +1581,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1533,6 +1615,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1540,6 +1631,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1557,146 +1687,398 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="72">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2187,28 +2569,28 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
@@ -2218,26 +2600,26 @@
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
@@ -2247,32 +2629,32 @@
     </row>
     <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="47" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -2282,11 +2664,11 @@
     </row>
     <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
-      <c r="B5" s="51">
+      <c r="B5" s="36">
         <v>0</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="50" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="3">
@@ -2319,15 +2701,15 @@
       <c r="N5" s="5">
         <v>3</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -2337,25 +2719,25 @@
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="64">
         <v>0</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="50">
         <v>0</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="53" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -2376,15 +2758,15 @@
       <c r="N6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="57">
         <v>0</v>
       </c>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
@@ -2394,9 +2776,9 @@
     </row>
     <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="23">
+      <c r="B7" s="20"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="50">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2429,15 +2811,15 @@
       <c r="N7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="57">
         <v>1</v>
       </c>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
@@ -2447,11 +2829,11 @@
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="44">
+      <c r="B8" s="20"/>
+      <c r="C8" s="64">
         <v>1</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="50">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2484,15 +2866,15 @@
       <c r="N8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="57">
         <v>2</v>
       </c>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -2502,9 +2884,9 @@
     </row>
     <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="23">
+      <c r="B9" s="20"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="50">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -2537,15 +2919,15 @@
       <c r="N9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="57">
         <v>3</v>
       </c>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
@@ -2555,11 +2937,11 @@
     </row>
     <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="44">
+      <c r="B10" s="20"/>
+      <c r="C10" s="64">
         <v>2</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="50">
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2592,15 +2974,15 @@
       <c r="N10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="57">
         <v>4</v>
       </c>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -2610,9 +2992,9 @@
     </row>
     <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="23">
+      <c r="B11" s="20"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="50">
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2645,15 +3027,15 @@
       <c r="N11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="57">
         <v>5</v>
       </c>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
@@ -2663,11 +3045,11 @@
     </row>
     <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="44">
+      <c r="B12" s="20"/>
+      <c r="C12" s="64">
         <v>3</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="50">
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -2700,15 +3082,15 @@
       <c r="N12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="57">
         <v>6</v>
       </c>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -2718,50 +3100,50 @@
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="24">
+      <c r="B13" s="20"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="51">
         <v>7</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="52" t="s">
         <v>88</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="25" t="s">
+      <c r="J13" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="59">
         <v>7</v>
       </c>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -2771,28 +3153,28 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="38" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
@@ -2802,34 +3184,34 @@
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="71"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33" t="s">
+      <c r="J15" s="75"/>
+      <c r="K15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="33" t="s">
+      <c r="M15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="33" t="s">
+      <c r="N15" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
@@ -2839,26 +3221,26 @@
     </row>
     <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
@@ -2868,32 +3250,32 @@
     </row>
     <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="62" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="47" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
@@ -2903,11 +3285,11 @@
     </row>
     <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="51">
+      <c r="B18" s="36">
         <v>1</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="50" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="3">
@@ -2940,15 +3322,15 @@
       <c r="N18" s="5">
         <v>3</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="O18" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -2958,25 +3340,25 @@
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="64">
         <v>0</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="50">
         <v>0</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="53" t="s">
         <v>96</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -2997,15 +3379,15 @@
       <c r="N19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O19" s="57">
         <v>0</v>
       </c>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -3015,9 +3397,9 @@
     </row>
     <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="23">
+      <c r="B20" s="20"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="50">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3050,15 +3432,15 @@
       <c r="N20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="27">
+      <c r="O20" s="57">
         <v>1</v>
       </c>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -3068,11 +3450,11 @@
     </row>
     <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="44">
+      <c r="B21" s="20"/>
+      <c r="C21" s="64">
         <v>1</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="50">
         <v>2</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3105,15 +3487,15 @@
       <c r="N21" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O21" s="27">
+      <c r="O21" s="57">
         <v>2</v>
       </c>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
@@ -3123,9 +3505,9 @@
     </row>
     <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="23">
+      <c r="B22" s="20"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="50">
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -3158,15 +3540,15 @@
       <c r="N22" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O22" s="27">
+      <c r="O22" s="57">
         <v>3</v>
       </c>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
@@ -3176,11 +3558,11 @@
     </row>
     <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="44">
+      <c r="B23" s="20"/>
+      <c r="C23" s="64">
         <v>2</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="50">
         <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3213,15 +3595,15 @@
       <c r="N23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="27">
+      <c r="O23" s="57">
         <v>4</v>
       </c>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
@@ -3231,9 +3613,9 @@
     </row>
     <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="23">
+      <c r="B24" s="20"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="50">
         <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3266,15 +3648,15 @@
       <c r="N24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O24" s="27">
+      <c r="O24" s="57">
         <v>5</v>
       </c>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
@@ -3284,11 +3666,11 @@
     </row>
     <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="44">
+      <c r="B25" s="20"/>
+      <c r="C25" s="64">
         <v>3</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="50">
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -3321,15 +3703,15 @@
       <c r="N25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O25" s="27">
+      <c r="O25" s="57">
         <v>6</v>
       </c>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
@@ -3339,50 +3721,50 @@
     </row>
     <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="24">
+      <c r="B26" s="20"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="51">
         <v>7</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="52" t="s">
         <v>152</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="25" t="s">
+      <c r="J26" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="L26" s="25" t="s">
+      <c r="L26" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="M26" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="N26" s="25" t="s">
+      <c r="N26" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="59">
         <v>7</v>
       </c>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
@@ -3392,28 +3774,28 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="38" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
@@ -3423,34 +3805,34 @@
     </row>
     <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="71"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="33" t="s">
+      <c r="J28" s="75"/>
+      <c r="K28" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="L28" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="33" t="s">
+      <c r="M28" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="N28" s="33" t="s">
+      <c r="N28" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="O28" s="34"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
@@ -3460,26 +3842,26 @@
     </row>
     <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
@@ -3489,32 +3871,32 @@
     </row>
     <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="62" t="s">
+      <c r="C30" s="37"/>
+      <c r="D30" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="47" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
@@ -3524,11 +3906,11 @@
     </row>
     <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
-      <c r="B31" s="51">
+      <c r="B31" s="36">
         <v>2</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="63"/>
+      <c r="D31" s="50" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="3">
@@ -3561,15 +3943,15 @@
       <c r="N31" s="5">
         <v>3</v>
       </c>
-      <c r="O31" s="27" t="s">
+      <c r="O31" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="60"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
@@ -3579,25 +3961,25 @@
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="64">
         <v>0</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="50">
         <v>0</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="53" t="s">
         <v>160</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -3618,15 +4000,15 @@
       <c r="N32" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="O32" s="27">
+      <c r="O32" s="57">
         <v>0</v>
       </c>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="60"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
@@ -3636,9 +4018,9 @@
     </row>
     <row r="33" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="23">
+      <c r="B33" s="20"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="50">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -3671,15 +4053,15 @@
       <c r="N33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="O33" s="27">
+      <c r="O33" s="57">
         <v>1</v>
       </c>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="60"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
@@ -3689,11 +4071,11 @@
     </row>
     <row r="34" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="44">
+      <c r="B34" s="20"/>
+      <c r="C34" s="64">
         <v>1</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="50">
         <v>2</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -3726,15 +4108,15 @@
       <c r="N34" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="O34" s="27">
+      <c r="O34" s="57">
         <v>2</v>
       </c>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
@@ -3744,9 +4126,9 @@
     </row>
     <row r="35" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="23">
+      <c r="B35" s="20"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="50">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -3779,15 +4161,15 @@
       <c r="N35" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O35" s="27">
+      <c r="O35" s="57">
         <v>3</v>
       </c>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
@@ -3797,11 +4179,11 @@
     </row>
     <row r="36" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="44">
+      <c r="B36" s="20"/>
+      <c r="C36" s="64">
         <v>2</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="50">
         <v>4</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -3834,15 +4216,15 @@
       <c r="N36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="O36" s="27">
+      <c r="O36" s="57">
         <v>4</v>
       </c>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
@@ -3852,9 +4234,9 @@
     </row>
     <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="23">
+      <c r="B37" s="20"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="50">
         <v>5</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -3887,15 +4269,15 @@
       <c r="N37" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="O37" s="27">
+      <c r="O37" s="57">
         <v>5</v>
       </c>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
@@ -3905,11 +4287,11 @@
     </row>
     <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="44">
+      <c r="B38" s="20"/>
+      <c r="C38" s="64">
         <v>3</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="50">
         <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -3942,15 +4324,15 @@
       <c r="N38" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O38" s="27">
+      <c r="O38" s="57">
         <v>6</v>
       </c>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="60"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
@@ -3960,50 +4342,50 @@
     </row>
     <row r="39" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="24">
+      <c r="B39" s="20"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="51">
         <v>7</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="H39" s="52" t="s">
         <v>216</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J39" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K39" s="25" t="s">
+      <c r="J39" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="L39" s="25" t="s">
+      <c r="L39" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="M39" s="25" t="s">
+      <c r="M39" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="N39" s="25" t="s">
+      <c r="N39" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="O39" s="29">
+      <c r="O39" s="59">
         <v>7</v>
       </c>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="60"/>
-      <c r="U39" s="60"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
@@ -4013,28 +4395,28 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="38" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="60"/>
-      <c r="U40" s="60"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
@@ -4044,34 +4426,34 @@
     </row>
     <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
       <c r="I41" s="71"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="33" t="s">
+      <c r="J41" s="75"/>
+      <c r="K41" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="L41" s="33" t="s">
+      <c r="L41" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="33" t="s">
+      <c r="M41" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="N41" s="33" t="s">
+      <c r="N41" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="O41" s="34"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="60"/>
-      <c r="U41" s="60"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
@@ -4081,26 +4463,26 @@
     </row>
     <row r="42" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="60"/>
-      <c r="T42" s="60"/>
-      <c r="U42" s="60"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
@@ -4110,32 +4492,32 @@
     </row>
     <row r="43" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="62" t="s">
+      <c r="C43" s="37"/>
+      <c r="D43" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="47" t="s">
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="60"/>
-      <c r="T43" s="60"/>
-      <c r="U43" s="60"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
@@ -4145,11 +4527,11 @@
     </row>
     <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
-      <c r="B44" s="51">
+      <c r="B44" s="36">
         <v>3</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="63"/>
+      <c r="D44" s="50" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="3">
@@ -4182,15 +4564,15 @@
       <c r="N44" s="5">
         <v>3</v>
       </c>
-      <c r="O44" s="27" t="s">
+      <c r="O44" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="60"/>
-      <c r="T44" s="60"/>
-      <c r="U44" s="60"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
@@ -4200,25 +4582,25 @@
     </row>
     <row r="45" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="44">
+      <c r="C45" s="64">
         <v>0</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="50">
         <v>0</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="F45" s="26" t="s">
+      <c r="F45" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="H45" s="26" t="s">
+      <c r="H45" s="53" t="s">
         <v>224</v>
       </c>
       <c r="I45" s="3" t="s">
@@ -4239,15 +4621,15 @@
       <c r="N45" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="O45" s="27">
+      <c r="O45" s="57">
         <v>0</v>
       </c>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60"/>
-      <c r="T45" s="60"/>
-      <c r="U45" s="60"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
@@ -4257,9 +4639,9 @@
     </row>
     <row r="46" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="23">
+      <c r="B46" s="20"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="50">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -4292,15 +4674,15 @@
       <c r="N46" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O46" s="27">
+      <c r="O46" s="57">
         <v>1</v>
       </c>
-      <c r="P46" s="60"/>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="60"/>
-      <c r="T46" s="60"/>
-      <c r="U46" s="60"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
       <c r="V46" s="11"/>
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
@@ -4310,11 +4692,11 @@
     </row>
     <row r="47" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="44">
+      <c r="B47" s="20"/>
+      <c r="C47" s="64">
         <v>1</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="50">
         <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -4347,15 +4729,15 @@
       <c r="N47" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="O47" s="27">
+      <c r="O47" s="57">
         <v>2</v>
       </c>
-      <c r="P47" s="60"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="60"/>
-      <c r="T47" s="60"/>
-      <c r="U47" s="60"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
       <c r="V47" s="11"/>
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
@@ -4365,9 +4747,9 @@
     </row>
     <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="23">
+      <c r="B48" s="20"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="50">
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -4400,15 +4782,15 @@
       <c r="N48" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="O48" s="27">
+      <c r="O48" s="57">
         <v>3</v>
       </c>
-      <c r="P48" s="60"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="60"/>
-      <c r="T48" s="60"/>
-      <c r="U48" s="60"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
@@ -4418,11 +4800,11 @@
     </row>
     <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="44">
+      <c r="B49" s="20"/>
+      <c r="C49" s="64">
         <v>2</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="50">
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -4455,15 +4837,15 @@
       <c r="N49" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="O49" s="27">
+      <c r="O49" s="57">
         <v>4</v>
       </c>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="60"/>
-      <c r="R49" s="60"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="60"/>
-      <c r="U49" s="60"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
@@ -4473,9 +4855,9 @@
     </row>
     <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="23">
+      <c r="B50" s="20"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="50">
         <v>5</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -4508,15 +4890,15 @@
       <c r="N50" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="O50" s="27">
+      <c r="O50" s="57">
         <v>5</v>
       </c>
-      <c r="P50" s="60"/>
-      <c r="Q50" s="60"/>
-      <c r="R50" s="60"/>
-      <c r="S50" s="60"/>
-      <c r="T50" s="60"/>
-      <c r="U50" s="60"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
@@ -4526,11 +4908,11 @@
     </row>
     <row r="51" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="44">
+      <c r="B51" s="20"/>
+      <c r="C51" s="64">
         <v>3</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="50">
         <v>6</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -4563,15 +4945,15 @@
       <c r="N51" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="O51" s="27">
+      <c r="O51" s="57">
         <v>6</v>
       </c>
-      <c r="P51" s="60"/>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="60"/>
-      <c r="T51" s="60"/>
-      <c r="U51" s="60"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
@@ -4581,50 +4963,50 @@
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="24">
+      <c r="B52" s="20"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="51">
         <v>7</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="H52" s="25" t="s">
+      <c r="H52" s="52" t="s">
         <v>280</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J52" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="K52" s="25" t="s">
+      <c r="J52" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="L52" s="25" t="s">
+      <c r="L52" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="M52" s="25" t="s">
+      <c r="M52" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="N52" s="25" t="s">
+      <c r="N52" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="O52" s="29">
+      <c r="O52" s="59">
         <v>7</v>
       </c>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="60"/>
-      <c r="T52" s="60"/>
-      <c r="U52" s="60"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
       <c r="V52" s="11"/>
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
@@ -4634,28 +5016,28 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="38" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="60"/>
-      <c r="T53" s="60"/>
-      <c r="U53" s="60"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
@@ -4665,34 +5047,34 @@
     </row>
     <row r="54" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="70"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
       <c r="I54" s="71"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="33" t="s">
+      <c r="J54" s="75"/>
+      <c r="K54" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="L54" s="33" t="s">
+      <c r="L54" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="M54" s="33" t="s">
+      <c r="M54" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="N54" s="33" t="s">
+      <c r="N54" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="O54" s="34"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="60"/>
-      <c r="T54" s="60"/>
-      <c r="U54" s="60"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
@@ -4702,26 +5084,26 @@
     </row>
     <row r="55" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="60"/>
-      <c r="Q55" s="60"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="60"/>
-      <c r="T55" s="60"/>
-      <c r="U55" s="60"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
       <c r="V55" s="11"/>
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
@@ -4731,48 +5113,48 @@
     </row>
     <row r="56" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="18" t="s">
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="42">
         <v>0</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="42">
         <v>1</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="42">
         <v>2</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="42">
         <v>3</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="42">
         <v>4</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J56" s="42">
         <v>5</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K56" s="42">
         <v>6</v>
       </c>
-      <c r="L56" s="18">
+      <c r="L56" s="42">
         <v>7</v>
       </c>
-      <c r="M56" s="18">
+      <c r="M56" s="42">
         <v>8</v>
       </c>
-      <c r="N56" s="18" t="s">
+      <c r="N56" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="O56" s="15"/>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="60"/>
-      <c r="R56" s="60"/>
-      <c r="S56" s="60"/>
-      <c r="T56" s="60"/>
-      <c r="U56" s="60"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
@@ -4782,8 +5164,8 @@
     </row>
     <row r="57" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="12">
         <v>0</v>
       </c>
@@ -4807,13 +5189,13 @@
       <c r="N57" s="12">
         <v>0</v>
       </c>
-      <c r="O57" s="15"/>
-      <c r="P57" s="61"/>
-      <c r="Q57" s="60"/>
-      <c r="R57" s="60"/>
-      <c r="S57" s="60"/>
-      <c r="T57" s="60"/>
-      <c r="U57" s="60"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
       <c r="V57" s="11"/>
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
@@ -4823,8 +5205,8 @@
     </row>
     <row r="58" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="12">
         <v>1</v>
       </c>
@@ -4854,13 +5236,13 @@
       <c r="N58" s="12">
         <v>1</v>
       </c>
-      <c r="O58" s="15"/>
-      <c r="P58" s="61"/>
-      <c r="Q58" s="60"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="60"/>
-      <c r="T58" s="60"/>
-      <c r="U58" s="60"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
       <c r="V58" s="11"/>
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
@@ -4870,8 +5252,8 @@
     </row>
     <row r="59" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="12">
         <v>2</v>
       </c>
@@ -4903,13 +5285,13 @@
       <c r="N59" s="12">
         <v>2</v>
       </c>
-      <c r="O59" s="15"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="60"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="60"/>
-      <c r="T59" s="60"/>
-      <c r="U59" s="60"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
       <c r="V59" s="11"/>
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
@@ -4919,8 +5301,8 @@
     </row>
     <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="12">
         <v>3</v>
       </c>
@@ -4944,13 +5326,13 @@
       <c r="N60" s="12">
         <v>3</v>
       </c>
-      <c r="O60" s="15"/>
-      <c r="P60" s="61"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="60"/>
-      <c r="T60" s="60"/>
-      <c r="U60" s="60"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="32"/>
       <c r="V60" s="11"/>
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
@@ -4960,30 +5342,30 @@
     </row>
     <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="16" t="s">
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="16" t="s">
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="O61" s="15"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="60"/>
-      <c r="T61" s="60"/>
-      <c r="U61" s="60"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="32"/>
       <c r="V61" s="11"/>
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
@@ -4993,26 +5375,26 @@
     </row>
     <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="57"/>
-      <c r="P62" s="60"/>
-      <c r="Q62" s="60"/>
-      <c r="R62" s="60"/>
-      <c r="S62" s="60"/>
-      <c r="T62" s="60"/>
-      <c r="U62" s="60"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="32"/>
       <c r="V62" s="11"/>
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
@@ -5022,48 +5404,48 @@
     </row>
     <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="18" t="s">
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="42">
         <v>0</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="42">
         <v>1</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="42">
         <v>2</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="42">
         <v>3</v>
       </c>
-      <c r="I63" s="18">
+      <c r="I63" s="42">
         <v>4</v>
       </c>
-      <c r="J63" s="18">
+      <c r="J63" s="42">
         <v>5</v>
       </c>
-      <c r="K63" s="18">
+      <c r="K63" s="42">
         <v>6</v>
       </c>
-      <c r="L63" s="18">
+      <c r="L63" s="42">
         <v>7</v>
       </c>
-      <c r="M63" s="18">
+      <c r="M63" s="42">
         <v>8</v>
       </c>
-      <c r="N63" s="18" t="s">
+      <c r="N63" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="15"/>
-      <c r="P63" s="61"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="60"/>
-      <c r="T63" s="60"/>
-      <c r="U63" s="60"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
@@ -5073,8 +5455,8 @@
     </row>
     <row r="64" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="12">
         <v>0</v>
       </c>
@@ -5098,13 +5480,13 @@
       <c r="N64" s="12">
         <v>0</v>
       </c>
-      <c r="O64" s="15"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="60"/>
-      <c r="T64" s="60"/>
-      <c r="U64" s="60"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
@@ -5114,8 +5496,8 @@
     </row>
     <row r="65" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
       <c r="D65" s="12">
         <v>1</v>
       </c>
@@ -5145,13 +5527,13 @@
       <c r="N65" s="12">
         <v>1</v>
       </c>
-      <c r="O65" s="15"/>
-      <c r="P65" s="61"/>
-      <c r="Q65" s="60"/>
-      <c r="R65" s="60"/>
-      <c r="S65" s="60"/>
-      <c r="T65" s="60"/>
-      <c r="U65" s="60"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
       <c r="V65" s="11"/>
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
@@ -5161,8 +5543,8 @@
     </row>
     <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
       <c r="D66" s="12">
         <v>2</v>
       </c>
@@ -5194,13 +5576,13 @@
       <c r="N66" s="12">
         <v>2</v>
       </c>
-      <c r="O66" s="15"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="60"/>
-      <c r="R66" s="60"/>
-      <c r="S66" s="60"/>
-      <c r="T66" s="60"/>
-      <c r="U66" s="60"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="32"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="32"/>
+      <c r="U66" s="32"/>
       <c r="V66" s="11"/>
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
@@ -5210,8 +5592,8 @@
     </row>
     <row r="67" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
       <c r="D67" s="12">
         <v>3</v>
       </c>
@@ -5235,13 +5617,13 @@
       <c r="N67" s="12">
         <v>3</v>
       </c>
-      <c r="O67" s="15"/>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="60"/>
-      <c r="R67" s="60"/>
-      <c r="S67" s="60"/>
-      <c r="T67" s="60"/>
-      <c r="U67" s="60"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="32"/>
       <c r="V67" s="11"/>
       <c r="W67" s="11"/>
       <c r="X67" s="11"/>
@@ -5251,8 +5633,8 @@
     </row>
     <row r="68" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
       <c r="D68" s="12" t="s">
         <v>20</v>
       </c>
@@ -5268,13 +5650,13 @@
       <c r="N68" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="15"/>
-      <c r="P68" s="61"/>
-      <c r="Q68" s="60"/>
-      <c r="R68" s="60"/>
-      <c r="S68" s="60"/>
-      <c r="T68" s="60"/>
-      <c r="U68" s="60"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="32"/>
+      <c r="U68" s="32"/>
       <c r="V68" s="11"/>
       <c r="W68" s="11"/>
       <c r="X68" s="11"/>
@@ -5284,26 +5666,26 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
-      <c r="O69" s="42"/>
-      <c r="P69" s="61"/>
-      <c r="Q69" s="60"/>
-      <c r="R69" s="60"/>
-      <c r="S69" s="60"/>
-      <c r="T69" s="60"/>
-      <c r="U69" s="60"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="32"/>
+      <c r="U69" s="32"/>
       <c r="V69" s="11"/>
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
@@ -5313,26 +5695,26 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="50"/>
-      <c r="O70" s="50"/>
-      <c r="P70" s="50"/>
-      <c r="Q70" s="50"/>
-      <c r="R70" s="50"/>
-      <c r="S70" s="50"/>
-      <c r="T70" s="50"/>
-      <c r="U70" s="50"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="27"/>
+      <c r="U70" s="27"/>
       <c r="V70" s="11"/>
       <c r="W70" s="11"/>
       <c r="X70" s="11"/>
@@ -5989,11 +6371,11 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C51:C52"/>
     <mergeCell ref="D53:I54"/>
     <mergeCell ref="D40:I41"/>
     <mergeCell ref="D27:I28"/>
     <mergeCell ref="D14:I15"/>
-    <mergeCell ref="D30:I30"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -6003,8 +6385,6 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="J17:O17"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="K53:N53"/>
     <mergeCell ref="B62:O62"/>
@@ -6021,6 +6401,7 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:O4"/>
     <mergeCell ref="B3:O3"/>
+    <mergeCell ref="D30:I30"/>
     <mergeCell ref="J30:O30"/>
     <mergeCell ref="B32:B41"/>
     <mergeCell ref="K40:N40"/>
@@ -6036,7 +6417,8 @@
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="J17:O17"/>
     <mergeCell ref="B19:B28"/>
     <mergeCell ref="K27:N27"/>
     <mergeCell ref="B29:O29"/>
@@ -6046,48 +6428,48 @@
     <mergeCell ref="C25:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E6:I13 K14 E19:I26 K19:N26 E32:I39 K32:N39">
-    <cfRule type="expression" dxfId="17" priority="7">
+  <conditionalFormatting sqref="E32:I39 E6:I13 K14 K19:N26 E19:I26 K32:N39">
+    <cfRule type="expression" dxfId="71" priority="7">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:I52">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="70" priority="4">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57:M60">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="69" priority="2">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64:M67">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="68" priority="1">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="13" priority="8">
+    <cfRule type="expression" dxfId="67" priority="8">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="66" priority="6">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="65" priority="3">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:N13">
-    <cfRule type="expression" dxfId="10" priority="53">
+    <cfRule type="expression" dxfId="64" priority="53">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45:N52">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="63" priority="5">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6145,28 +6527,28 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
       <c r="V2" s="11"/>
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
@@ -6176,26 +6558,26 @@
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
@@ -6205,32 +6587,32 @@
     </row>
     <row r="4" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="63" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="47" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
@@ -6240,10 +6622,10 @@
     </row>
     <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
-      <c r="B5" s="51">
+      <c r="B5" s="36">
         <v>0</v>
       </c>
-      <c r="C5" s="79"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
@@ -6280,12 +6662,12 @@
       <c r="O5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -6295,28 +6677,28 @@
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="19">
         <v>0</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="50">
         <v>0</v>
       </c>
-      <c r="E6" s="26" t="str">
+      <c r="E6" s="53" t="str">
         <f>"MOD"&amp;(($D6*4)+(E$5))+($B$5*32)</f>
         <v>MOD0</v>
       </c>
-      <c r="F6" s="26" t="str">
+      <c r="F6" s="53" t="str">
         <f t="shared" ref="F6:H13" si="0">"MOD"&amp;(($D6*4)+(F$5))+($B$5*32)</f>
         <v>MOD1</v>
       </c>
-      <c r="G6" s="26" t="str">
+      <c r="G6" s="53" t="str">
         <f t="shared" si="0"/>
         <v>MOD2</v>
       </c>
-      <c r="H6" s="26" t="str">
+      <c r="H6" s="53" t="str">
         <f t="shared" si="0"/>
         <v>MOD3</v>
       </c>
@@ -6345,12 +6727,12 @@
       <c r="O6" s="5">
         <v>0</v>
       </c>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
@@ -6360,9 +6742,9 @@
     </row>
     <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="23">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="50">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="str">
@@ -6406,12 +6788,12 @@
       <c r="O7" s="5">
         <v>1</v>
       </c>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
@@ -6421,11 +6803,11 @@
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="35">
+      <c r="B8" s="20"/>
+      <c r="C8" s="19">
         <v>1</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="50">
         <v>2</v>
       </c>
       <c r="E8" s="1" t="str">
@@ -6469,12 +6851,12 @@
       <c r="O8" s="5">
         <v>2</v>
       </c>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
@@ -6484,9 +6866,9 @@
     </row>
     <row r="9" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="23">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="50">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="str">
@@ -6530,12 +6912,12 @@
       <c r="O9" s="5">
         <v>3</v>
       </c>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
@@ -6545,11 +6927,11 @@
     </row>
     <row r="10" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="35">
+      <c r="B10" s="20"/>
+      <c r="C10" s="19">
         <v>2</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="50">
         <v>4</v>
       </c>
       <c r="E10" s="1" t="str">
@@ -6593,12 +6975,12 @@
       <c r="O10" s="5">
         <v>4</v>
       </c>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
@@ -6608,9 +6990,9 @@
     </row>
     <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="23">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="50">
         <v>5</v>
       </c>
       <c r="E11" s="1" t="str">
@@ -6654,12 +7036,12 @@
       <c r="O11" s="5">
         <v>5</v>
       </c>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
@@ -6669,11 +7051,11 @@
     </row>
     <row r="12" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="35">
+      <c r="B12" s="20"/>
+      <c r="C12" s="19">
         <v>3</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="50">
         <v>6</v>
       </c>
       <c r="E12" s="1" t="str">
@@ -6717,12 +7099,12 @@
       <c r="O12" s="5">
         <v>6</v>
       </c>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
@@ -6732,24 +7114,24 @@
     </row>
     <row r="13" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="24">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="51">
         <v>7</v>
       </c>
-      <c r="E13" s="25" t="str">
+      <c r="E13" s="52" t="str">
         <f t="shared" si="2"/>
         <v>MOD28</v>
       </c>
-      <c r="F13" s="25" t="str">
+      <c r="F13" s="52" t="str">
         <f t="shared" si="0"/>
         <v>MOD29</v>
       </c>
-      <c r="G13" s="25" t="str">
+      <c r="G13" s="52" t="str">
         <f t="shared" si="0"/>
         <v>MOD30</v>
       </c>
-      <c r="H13" s="25" t="str">
+      <c r="H13" s="52" t="str">
         <f t="shared" si="0"/>
         <v>MOD31</v>
       </c>
@@ -6778,12 +7160,12 @@
       <c r="O13" s="5">
         <v>7</v>
       </c>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
@@ -6793,28 +7175,28 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="78"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
@@ -6824,8 +7206,8 @@
     </row>
     <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -6846,12 +7228,12 @@
         <v>19</v>
       </c>
       <c r="O15" s="7"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
@@ -6861,26 +7243,26 @@
     </row>
     <row r="16" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
@@ -6890,32 +7272,32 @@
     </row>
     <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="63" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="47" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
@@ -6925,11 +7307,11 @@
     </row>
     <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="51">
+      <c r="B18" s="36">
         <v>1</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="50" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="3">
@@ -6965,12 +7347,12 @@
       <c r="O18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="60"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
@@ -6980,13 +7362,13 @@
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="19">
         <v>0</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="50">
         <v>0</v>
       </c>
       <c r="E19" s="1" t="str">
@@ -7030,12 +7412,12 @@
       <c r="O19" s="5">
         <v>0</v>
       </c>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="60"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
@@ -7045,9 +7427,9 @@
     </row>
     <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="23">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="50">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="str">
@@ -7091,12 +7473,12 @@
       <c r="O20" s="5">
         <v>1</v>
       </c>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="60"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
@@ -7106,11 +7488,11 @@
     </row>
     <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="35">
+      <c r="B21" s="20"/>
+      <c r="C21" s="19">
         <v>1</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="50">
         <v>2</v>
       </c>
       <c r="E21" s="1" t="str">
@@ -7154,12 +7536,12 @@
       <c r="O21" s="5">
         <v>2</v>
       </c>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="60"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
@@ -7169,9 +7551,9 @@
     </row>
     <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="23">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="50">
         <v>3</v>
       </c>
       <c r="E22" s="1" t="str">
@@ -7215,12 +7597,12 @@
       <c r="O22" s="5">
         <v>3</v>
       </c>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
@@ -7230,11 +7612,11 @@
     </row>
     <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="35">
+      <c r="B23" s="20"/>
+      <c r="C23" s="19">
         <v>2</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="50">
         <v>4</v>
       </c>
       <c r="E23" s="1" t="str">
@@ -7278,12 +7660,12 @@
       <c r="O23" s="5">
         <v>4</v>
       </c>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="60"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
@@ -7293,9 +7675,9 @@
     </row>
     <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="23">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="50">
         <v>5</v>
       </c>
       <c r="E24" s="1" t="str">
@@ -7339,12 +7721,12 @@
       <c r="O24" s="5">
         <v>5</v>
       </c>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
@@ -7354,11 +7736,11 @@
     </row>
     <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="35">
+      <c r="B25" s="20"/>
+      <c r="C25" s="19">
         <v>3</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="50">
         <v>6</v>
       </c>
       <c r="E25" s="1" t="str">
@@ -7402,12 +7784,12 @@
       <c r="O25" s="5">
         <v>6</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
@@ -7417,24 +7799,24 @@
     </row>
     <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="24">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="51">
         <v>7</v>
       </c>
-      <c r="E26" s="25" t="str">
+      <c r="E26" s="52" t="str">
         <f t="shared" si="6"/>
         <v>MOD60</v>
       </c>
-      <c r="F26" s="25" t="str">
+      <c r="F26" s="52" t="str">
         <f t="shared" si="4"/>
         <v>MOD61</v>
       </c>
-      <c r="G26" s="25" t="str">
+      <c r="G26" s="52" t="str">
         <f t="shared" si="4"/>
         <v>MOD62</v>
       </c>
-      <c r="H26" s="25" t="str">
+      <c r="H26" s="52" t="str">
         <f t="shared" si="4"/>
         <v>MOD63</v>
       </c>
@@ -7463,12 +7845,12 @@
       <c r="O26" s="5">
         <v>7</v>
       </c>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
@@ -7478,28 +7860,28 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="6"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="76" t="s">
+      <c r="K27" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="78"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
@@ -7509,8 +7891,8 @@
     </row>
     <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -7531,12 +7913,12 @@
         <v>19</v>
       </c>
       <c r="O28" s="7"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
@@ -7546,26 +7928,26 @@
     </row>
     <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
@@ -7575,32 +7957,32 @@
     </row>
     <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="63" t="s">
+      <c r="C30" s="37"/>
+      <c r="D30" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="47" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
@@ -7610,11 +7992,11 @@
     </row>
     <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
-      <c r="B31" s="51">
+      <c r="B31" s="36">
         <v>2</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="23" t="s">
+      <c r="C31" s="38"/>
+      <c r="D31" s="50" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="3">
@@ -7650,12 +8032,12 @@
       <c r="O31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
-      <c r="U31" s="60"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
@@ -7665,13 +8047,13 @@
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="19">
         <v>0</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="50">
         <v>0</v>
       </c>
       <c r="E32" s="1" t="str">
@@ -7715,12 +8097,12 @@
       <c r="O32" s="5">
         <v>0</v>
       </c>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="60"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
@@ -7730,9 +8112,9 @@
     </row>
     <row r="33" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="23">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="50">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="str">
@@ -7776,12 +8158,12 @@
       <c r="O33" s="5">
         <v>1</v>
       </c>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="60"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
@@ -7791,11 +8173,11 @@
     </row>
     <row r="34" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="35">
+      <c r="B34" s="20"/>
+      <c r="C34" s="19">
         <v>1</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="50">
         <v>2</v>
       </c>
       <c r="E34" s="1" t="str">
@@ -7839,12 +8221,12 @@
       <c r="O34" s="5">
         <v>2</v>
       </c>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="60"/>
-      <c r="U34" s="60"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
       <c r="X34" s="11"/>
@@ -7854,9 +8236,9 @@
     </row>
     <row r="35" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="23">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="50">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="str">
@@ -7900,12 +8282,12 @@
       <c r="O35" s="5">
         <v>3</v>
       </c>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="60"/>
-      <c r="T35" s="60"/>
-      <c r="U35" s="60"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
@@ -7915,11 +8297,11 @@
     </row>
     <row r="36" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="35">
+      <c r="B36" s="20"/>
+      <c r="C36" s="19">
         <v>2</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="50">
         <v>4</v>
       </c>
       <c r="E36" s="1" t="str">
@@ -7963,12 +8345,12 @@
       <c r="O36" s="5">
         <v>4</v>
       </c>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
@@ -7978,9 +8360,9 @@
     </row>
     <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="23">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="50">
         <v>5</v>
       </c>
       <c r="E37" s="1" t="str">
@@ -8024,12 +8406,12 @@
       <c r="O37" s="5">
         <v>5</v>
       </c>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
@@ -8039,11 +8421,11 @@
     </row>
     <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="35">
+      <c r="B38" s="20"/>
+      <c r="C38" s="19">
         <v>3</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="50">
         <v>6</v>
       </c>
       <c r="E38" s="1" t="str">
@@ -8087,12 +8469,12 @@
       <c r="O38" s="5">
         <v>6</v>
       </c>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="60"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
@@ -8102,24 +8484,24 @@
     </row>
     <row r="39" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="24">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="51">
         <v>7</v>
       </c>
-      <c r="E39" s="25" t="str">
+      <c r="E39" s="52" t="str">
         <f t="shared" si="10"/>
         <v>MOD92</v>
       </c>
-      <c r="F39" s="25" t="str">
+      <c r="F39" s="52" t="str">
         <f t="shared" si="8"/>
         <v>MOD93</v>
       </c>
-      <c r="G39" s="25" t="str">
+      <c r="G39" s="52" t="str">
         <f t="shared" si="8"/>
         <v>MOD94</v>
       </c>
-      <c r="H39" s="25" t="str">
+      <c r="H39" s="52" t="str">
         <f t="shared" si="8"/>
         <v>MOD95</v>
       </c>
@@ -8148,12 +8530,12 @@
       <c r="O39" s="5">
         <v>7</v>
       </c>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="60"/>
-      <c r="U39" s="60"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
@@ -8163,28 +8545,28 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
       <c r="I40" s="6"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="76" t="s">
+      <c r="K40" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="78"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="24"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="60"/>
-      <c r="T40" s="60"/>
-      <c r="U40" s="60"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
@@ -8194,8 +8576,8 @@
     </row>
     <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="14"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -8216,12 +8598,12 @@
         <v>19</v>
       </c>
       <c r="O41" s="7"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="60"/>
-      <c r="U41" s="60"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
@@ -8231,26 +8613,26 @@
     </row>
     <row r="42" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="60"/>
-      <c r="T42" s="60"/>
-      <c r="U42" s="60"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
@@ -8260,32 +8642,32 @@
     </row>
     <row r="43" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="63" t="s">
+      <c r="C43" s="37"/>
+      <c r="D43" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="47" t="s">
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="60"/>
-      <c r="T43" s="60"/>
-      <c r="U43" s="60"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
@@ -8295,11 +8677,11 @@
     </row>
     <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
-      <c r="B44" s="51">
+      <c r="B44" s="36">
         <v>3</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="38"/>
+      <c r="D44" s="50" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="3">
@@ -8335,12 +8717,12 @@
       <c r="O44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="60"/>
-      <c r="T44" s="60"/>
-      <c r="U44" s="60"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
@@ -8350,13 +8732,13 @@
     </row>
     <row r="45" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="19">
         <v>0</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="50">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="str">
@@ -8400,12 +8782,12 @@
       <c r="O45" s="5">
         <v>0</v>
       </c>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="60"/>
-      <c r="T45" s="60"/>
-      <c r="U45" s="60"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
@@ -8415,9 +8797,9 @@
     </row>
     <row r="46" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="23">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="50">
         <v>1</v>
       </c>
       <c r="E46" s="1" t="str">
@@ -8461,12 +8843,12 @@
       <c r="O46" s="5">
         <v>1</v>
       </c>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="60"/>
-      <c r="T46" s="60"/>
-      <c r="U46" s="60"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
       <c r="V46" s="11"/>
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
@@ -8476,11 +8858,11 @@
     </row>
     <row r="47" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="35">
+      <c r="B47" s="20"/>
+      <c r="C47" s="19">
         <v>1</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="50">
         <v>2</v>
       </c>
       <c r="E47" s="1" t="str">
@@ -8524,12 +8906,12 @@
       <c r="O47" s="5">
         <v>2</v>
       </c>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="60"/>
-      <c r="R47" s="60"/>
-      <c r="S47" s="60"/>
-      <c r="T47" s="60"/>
-      <c r="U47" s="60"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
       <c r="V47" s="11"/>
       <c r="W47" s="11"/>
       <c r="X47" s="11"/>
@@ -8539,9 +8921,9 @@
     </row>
     <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="23">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="50">
         <v>3</v>
       </c>
       <c r="E48" s="1" t="str">
@@ -8585,12 +8967,12 @@
       <c r="O48" s="5">
         <v>3</v>
       </c>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="60"/>
-      <c r="R48" s="60"/>
-      <c r="S48" s="60"/>
-      <c r="T48" s="60"/>
-      <c r="U48" s="60"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
       <c r="V48" s="11"/>
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
@@ -8600,11 +8982,11 @@
     </row>
     <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="35">
+      <c r="B49" s="20"/>
+      <c r="C49" s="19">
         <v>2</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="50">
         <v>4</v>
       </c>
       <c r="E49" s="1" t="str">
@@ -8648,12 +9030,12 @@
       <c r="O49" s="5">
         <v>4</v>
       </c>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="60"/>
-      <c r="R49" s="60"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="60"/>
-      <c r="U49" s="60"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
       <c r="X49" s="11"/>
@@ -8663,9 +9045,9 @@
     </row>
     <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="23">
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="50">
         <v>5</v>
       </c>
       <c r="E50" s="1" t="str">
@@ -8709,12 +9091,12 @@
       <c r="O50" s="5">
         <v>5</v>
       </c>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="60"/>
-      <c r="R50" s="60"/>
-      <c r="S50" s="60"/>
-      <c r="T50" s="60"/>
-      <c r="U50" s="60"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
       <c r="X50" s="11"/>
@@ -8724,11 +9106,11 @@
     </row>
     <row r="51" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="35">
+      <c r="B51" s="20"/>
+      <c r="C51" s="19">
         <v>3</v>
       </c>
-      <c r="D51" s="23">
+      <c r="D51" s="50">
         <v>6</v>
       </c>
       <c r="E51" s="1" t="str">
@@ -8772,12 +9154,12 @@
       <c r="O51" s="5">
         <v>6</v>
       </c>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="60"/>
-      <c r="R51" s="60"/>
-      <c r="S51" s="60"/>
-      <c r="T51" s="60"/>
-      <c r="U51" s="60"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
       <c r="X51" s="11"/>
@@ -8787,24 +9169,24 @@
     </row>
     <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="24">
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="51">
         <v>7</v>
       </c>
-      <c r="E52" s="25" t="str">
+      <c r="E52" s="52" t="str">
         <f t="shared" si="14"/>
         <v>MOD124</v>
       </c>
-      <c r="F52" s="25" t="str">
+      <c r="F52" s="52" t="str">
         <f t="shared" si="12"/>
         <v>MOD125</v>
       </c>
-      <c r="G52" s="25" t="str">
+      <c r="G52" s="52" t="str">
         <f t="shared" si="12"/>
         <v>MOD126</v>
       </c>
-      <c r="H52" s="25" t="str">
+      <c r="H52" s="52" t="str">
         <f t="shared" si="12"/>
         <v>MOD127</v>
       </c>
@@ -8833,12 +9215,12 @@
       <c r="O52" s="5">
         <v>7</v>
       </c>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="60"/>
-      <c r="R52" s="60"/>
-      <c r="S52" s="60"/>
-      <c r="T52" s="60"/>
-      <c r="U52" s="60"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
       <c r="V52" s="11"/>
       <c r="W52" s="11"/>
       <c r="X52" s="11"/>
@@ -8848,28 +9230,28 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="14"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
       <c r="I53" s="6"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="76" t="s">
+      <c r="K53" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="77"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="78"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="24"/>
       <c r="O53" s="7"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="60"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="60"/>
-      <c r="T53" s="60"/>
-      <c r="U53" s="60"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
@@ -8879,34 +9261,34 @@
     </row>
     <row r="54" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
       <c r="J54" s="7"/>
-      <c r="K54" s="21" t="s">
+      <c r="K54" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="L54" s="21" t="s">
+      <c r="L54" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="M54" s="21" t="s">
+      <c r="M54" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="N54" s="21" t="s">
+      <c r="N54" s="48" t="s">
         <v>19</v>
       </c>
       <c r="O54" s="7"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="60"/>
-      <c r="T54" s="60"/>
-      <c r="U54" s="60"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
       <c r="V54" s="11"/>
       <c r="W54" s="11"/>
       <c r="X54" s="11"/>
@@ -8916,26 +9298,26 @@
     </row>
     <row r="55" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="60"/>
-      <c r="Q55" s="60"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="60"/>
-      <c r="T55" s="60"/>
-      <c r="U55" s="60"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
       <c r="V55" s="11"/>
       <c r="W55" s="11"/>
       <c r="X55" s="11"/>
@@ -8945,48 +9327,48 @@
     </row>
     <row r="56" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="18" t="s">
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="42">
         <v>0</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="42">
         <v>1</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="42">
         <v>2</v>
       </c>
-      <c r="H56" s="18">
+      <c r="H56" s="42">
         <v>3</v>
       </c>
-      <c r="I56" s="18">
+      <c r="I56" s="42">
         <v>4</v>
       </c>
-      <c r="J56" s="18">
+      <c r="J56" s="42">
         <v>5</v>
       </c>
-      <c r="K56" s="18">
+      <c r="K56" s="42">
         <v>6</v>
       </c>
-      <c r="L56" s="18">
+      <c r="L56" s="42">
         <v>7</v>
       </c>
-      <c r="M56" s="18">
+      <c r="M56" s="42">
         <v>8</v>
       </c>
-      <c r="N56" s="18" t="s">
+      <c r="N56" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="O56" s="15"/>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="60"/>
-      <c r="R56" s="60"/>
-      <c r="S56" s="60"/>
-      <c r="T56" s="60"/>
-      <c r="U56" s="60"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
       <c r="V56" s="11"/>
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
@@ -8996,8 +9378,8 @@
     </row>
     <row r="57" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="12">
         <v>0</v>
       </c>
@@ -9021,13 +9403,13 @@
       <c r="N57" s="12">
         <v>0</v>
       </c>
-      <c r="O57" s="15"/>
-      <c r="P57" s="61"/>
-      <c r="Q57" s="60"/>
-      <c r="R57" s="60"/>
-      <c r="S57" s="60"/>
-      <c r="T57" s="60"/>
-      <c r="U57" s="60"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="31"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
       <c r="V57" s="11"/>
       <c r="W57" s="11"/>
       <c r="X57" s="11"/>
@@ -9037,8 +9419,8 @@
     </row>
     <row r="58" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="12">
         <v>1</v>
       </c>
@@ -9068,13 +9450,13 @@
       <c r="N58" s="12">
         <v>1</v>
       </c>
-      <c r="O58" s="15"/>
-      <c r="P58" s="61"/>
-      <c r="Q58" s="60"/>
-      <c r="R58" s="60"/>
-      <c r="S58" s="60"/>
-      <c r="T58" s="60"/>
-      <c r="U58" s="60"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
       <c r="V58" s="11"/>
       <c r="W58" s="11"/>
       <c r="X58" s="11"/>
@@ -9084,8 +9466,8 @@
     </row>
     <row r="59" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
       <c r="D59" s="12">
         <v>2</v>
       </c>
@@ -9117,13 +9499,13 @@
       <c r="N59" s="12">
         <v>2</v>
       </c>
-      <c r="O59" s="15"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="60"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="60"/>
-      <c r="T59" s="60"/>
-      <c r="U59" s="60"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
       <c r="V59" s="11"/>
       <c r="W59" s="11"/>
       <c r="X59" s="11"/>
@@ -9133,8 +9515,8 @@
     </row>
     <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="12">
         <v>3</v>
       </c>
@@ -9158,13 +9540,13 @@
       <c r="N60" s="12">
         <v>3</v>
       </c>
-      <c r="O60" s="15"/>
-      <c r="P60" s="61"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="60"/>
-      <c r="T60" s="60"/>
-      <c r="U60" s="60"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="32"/>
       <c r="V60" s="11"/>
       <c r="W60" s="11"/>
       <c r="X60" s="11"/>
@@ -9174,30 +9556,30 @@
     </row>
     <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="16" t="s">
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="16" t="s">
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="O61" s="15"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="60"/>
-      <c r="T61" s="60"/>
-      <c r="U61" s="60"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="32"/>
       <c r="V61" s="11"/>
       <c r="W61" s="11"/>
       <c r="X61" s="11"/>
@@ -9207,26 +9589,26 @@
     </row>
     <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="57"/>
-      <c r="P62" s="60"/>
-      <c r="Q62" s="60"/>
-      <c r="R62" s="60"/>
-      <c r="S62" s="60"/>
-      <c r="T62" s="60"/>
-      <c r="U62" s="60"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="32"/>
       <c r="V62" s="11"/>
       <c r="W62" s="11"/>
       <c r="X62" s="11"/>
@@ -9236,48 +9618,48 @@
     </row>
     <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="18" t="s">
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="42">
         <v>0</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="42">
         <v>1</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="42">
         <v>2</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H63" s="42">
         <v>3</v>
       </c>
-      <c r="I63" s="18">
+      <c r="I63" s="42">
         <v>4</v>
       </c>
-      <c r="J63" s="18">
+      <c r="J63" s="42">
         <v>5</v>
       </c>
-      <c r="K63" s="18">
+      <c r="K63" s="42">
         <v>6</v>
       </c>
-      <c r="L63" s="18">
+      <c r="L63" s="42">
         <v>7</v>
       </c>
-      <c r="M63" s="18">
+      <c r="M63" s="42">
         <v>8</v>
       </c>
-      <c r="N63" s="18" t="s">
+      <c r="N63" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="O63" s="15"/>
-      <c r="P63" s="61"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="60"/>
-      <c r="T63" s="60"/>
-      <c r="U63" s="60"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
       <c r="X63" s="11"/>
@@ -9287,8 +9669,8 @@
     </row>
     <row r="64" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="12">
         <v>0</v>
       </c>
@@ -9312,13 +9694,13 @@
       <c r="N64" s="12">
         <v>0</v>
       </c>
-      <c r="O64" s="15"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="60"/>
-      <c r="R64" s="60"/>
-      <c r="S64" s="60"/>
-      <c r="T64" s="60"/>
-      <c r="U64" s="60"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="32"/>
+      <c r="U64" s="32"/>
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
@@ -9328,8 +9710,8 @@
     </row>
     <row r="65" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
       <c r="D65" s="12">
         <v>1</v>
       </c>
@@ -9359,13 +9741,13 @@
       <c r="N65" s="12">
         <v>1</v>
       </c>
-      <c r="O65" s="15"/>
-      <c r="P65" s="61"/>
-      <c r="Q65" s="60"/>
-      <c r="R65" s="60"/>
-      <c r="S65" s="60"/>
-      <c r="T65" s="60"/>
-      <c r="U65" s="60"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="32"/>
       <c r="V65" s="11"/>
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
@@ -9375,8 +9757,8 @@
     </row>
     <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
       <c r="D66" s="12">
         <v>2</v>
       </c>
@@ -9408,13 +9790,13 @@
       <c r="N66" s="12">
         <v>2</v>
       </c>
-      <c r="O66" s="15"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="60"/>
-      <c r="R66" s="60"/>
-      <c r="S66" s="60"/>
-      <c r="T66" s="60"/>
-      <c r="U66" s="60"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="32"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="32"/>
+      <c r="U66" s="32"/>
       <c r="V66" s="11"/>
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
@@ -9424,8 +9806,8 @@
     </row>
     <row r="67" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
       <c r="D67" s="12">
         <v>3</v>
       </c>
@@ -9449,13 +9831,13 @@
       <c r="N67" s="12">
         <v>3</v>
       </c>
-      <c r="O67" s="15"/>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="60"/>
-      <c r="R67" s="60"/>
-      <c r="S67" s="60"/>
-      <c r="T67" s="60"/>
-      <c r="U67" s="60"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="32"/>
       <c r="V67" s="11"/>
       <c r="W67" s="11"/>
       <c r="X67" s="11"/>
@@ -9465,8 +9847,8 @@
     </row>
     <row r="68" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
       <c r="D68" s="12" t="s">
         <v>20</v>
       </c>
@@ -9482,13 +9864,13 @@
       <c r="N68" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O68" s="15"/>
-      <c r="P68" s="61"/>
-      <c r="Q68" s="60"/>
-      <c r="R68" s="60"/>
-      <c r="S68" s="60"/>
-      <c r="T68" s="60"/>
-      <c r="U68" s="60"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="32"/>
+      <c r="U68" s="32"/>
       <c r="V68" s="11"/>
       <c r="W68" s="11"/>
       <c r="X68" s="11"/>
@@ -9498,26 +9880,26 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
-      <c r="O69" s="42"/>
-      <c r="P69" s="61"/>
-      <c r="Q69" s="60"/>
-      <c r="R69" s="60"/>
-      <c r="S69" s="60"/>
-      <c r="T69" s="60"/>
-      <c r="U69" s="60"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="32"/>
+      <c r="U69" s="32"/>
       <c r="V69" s="11"/>
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
@@ -9527,26 +9909,26 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="50"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="50"/>
-      <c r="O70" s="50"/>
-      <c r="P70" s="50"/>
-      <c r="Q70" s="50"/>
-      <c r="R70" s="50"/>
-      <c r="S70" s="50"/>
-      <c r="T70" s="50"/>
-      <c r="U70" s="50"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="27"/>
+      <c r="U70" s="27"/>
       <c r="V70" s="11"/>
       <c r="W70" s="11"/>
       <c r="X70" s="11"/>
@@ -10214,6 +10596,16 @@
     <mergeCell ref="K53:N53"/>
     <mergeCell ref="B55:O55"/>
     <mergeCell ref="B62:O62"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="K40:N40"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="B3:O3"/>
@@ -10230,32 +10622,22 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="J17:O17"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B42:O42"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:B28"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B42:O42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:I43"/>
     <mergeCell ref="J43:O43"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="K40:N40"/>
   </mergeCells>
-  <conditionalFormatting sqref="E6:I14 K14 K19:N26 E19:I27 K32:N39 E32:I40">
+  <conditionalFormatting sqref="E32:I40 E6:I14 K14 K19:N26 E19:I27 K32:N39">
     <cfRule type="expression" dxfId="8" priority="7">
       <formula>_xlfn.XLOOKUP(#REF!,#REF!,$G$3:$G$186)="FUSED"</formula>
     </cfRule>
